--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\stuff\To move\New folder\GameManager0.3.3_mod_0.46\GameLibrary\アルロメver1.4 RJ365442\アルロメver1.4 RJ365442 Translated\www\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17546" windowHeight="6694"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="569">
   <si>
     <t>EV001</t>
   </si>
@@ -141,18 +145,47 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
+    <t>Shina</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたにゃ！
 にゃははは♥
 ソッコー搾り取ってやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I caught you!
+Nyahaha♥
+I'll wring you dry♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちんこビンビンにしてどこ行くにゃぁ？
 ほら、アタシの手とセックスしてくにゃ♥
 ほらほらほらァー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where are you gonna cum?
+Look, I can fuck you with my hands.
+Look♥ Look♥ Look♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Where are you gonna cum-nya?
+Look, I can fuck you with my hands-nya.
+Look♥ Look♥ Look♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ここ掴まれたらもう終わりにゃぁ？
 人間ってバカだもんにゃぁ。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;"If I grab you right here, you're done for? 
+Humans are stupid."</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you're captured here, you're done for aren'nya? 
+Humans are stupid-nya.</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
@@ -160,11 +193,21 @@
 素直になっていいにゃぁ～？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Maybe you got caught on purpose?
+Hey, look.
+Isn't it okay to be honest?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あーぁ♥もうダメにゃぁ♥
 イクイクイクーって震えてるし♥
 負けろ負けろー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Aww♥ You're done for, nya♥
+You're shaking so hard, about to cum♥
+Give in, give in♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゃっは♥もうイったにゃ♥
 ハンターの癖にソーローにゃぁ。
 床が汚れちゃったにゃぁ？</t>
@@ -180,18 +223,37 @@
 そのままじっとしてろにゃ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Sluuurp♥
+It feels so good that you can't move?♥
+ Then just stay still♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほら出せ♥
 れろれろれろぉ♥
 ぜーんぶ飲み干してやるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Hey, look!♥
+Flick,flick, flick♥
+I'll drink it allll up♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシに食べられたくて待ってたにゃ？
 にゃは♥
 その顔見れば分かるし♥じゅる♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Are you waiting for me to swallow it down?
+Nyaha♥
+You can tell just by looking at your face♥ Shlurrrrp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;お前の精子アタシのお腹で溶かして殺してやるにゃ♥
 じゅるるるる♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll melt your sperm inside my stomach, and then I'll kill you ♥
+Shlurrrp♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;んにゃぁ・・・♥
@@ -199,8 +261,17 @@
 ばーーーーか♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Nyaa♥
+You lose♥
+Mor---on♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたし！
 美味しそーな匂いだにゃぁ♥</t>
+  </si>
+  <si>
+    <t>Now I've got it!
+It smells delicious♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ちんこビンビンにしてどこ行くにゃぁ？
@@ -208,7 +279,15 @@
 ぐりぐりー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where is your throbbing dick gonna come?
+Have sex with my cheeks♥
+Rub, rub ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イクまで逃がさないにゃぁ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I won't let you go until you come ♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ひょっとしてわざと捕まったにゃぁ？
@@ -216,8 +295,17 @@
 コレどーして欲しいにゃ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Maybe you got caught on purpose♥
+You're so hard down there.
+Do you actually *want* me to do this?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゃぁ？
 ほっぺすりすりしただけで出すにゃ？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaa?
+Should I just rub it on my cheeks?</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;にゃっは♥
@@ -225,6 +313,11 @@
 アタシもうずうずしてくるし♥</t>
   </si>
   <si>
+    <t>Nyaha♥
+You're funny, like a little dying bug♥
+I'm tingling all over♥</t>
+  </si>
+  <si>
     <t>EV008</t>
   </si>
   <si>
@@ -238,6 +331,10 @@
   <si>
     <t>\n&lt;\n[3]&gt;私ちょっとお腹空いてきちゃったー。
 少しでいいから精液飲ませてほしいなー♥</t>
+  </si>
+  <si>
+    <t>n\&lt;n[3]&gt;"I'm a little hungry.
+It's okay to drink your semen, if it's just a little.♥"</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;\n[1]ー♥こっち見てー♥</t>
@@ -248,11 +345,21 @@
 おいでよー♥</t>
   </si>
   <si>
+    <t>n\&lt;n[3]&gt;Put it between my boobs
+I'll make you all slimy ♥
+Come on♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;にゅるん♥にゅるん♥って動かしてー、
 おちんちんカチカチにしてあげるよー？
 にゅるん♥にゅるーん♥</t>
   </si>
   <si>
+    <t>n\&lt;n[3]&gt;schlorp♥ schlorp♥ Come on, keep moving,
+ I'm making your cock hard, right?
+schlorp♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;おっぱいでいじめられるの想像しちゃったー？
 足が震えてきてるよー？
 くすっ♥</t>
@@ -316,11 +423,20 @@
 そんな小さなナイフなんて置いて♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Hey, it feels good, right?
+You've got such a little knife♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ナイフなんかよりその股間についてる武器を握らないと♥
 サキュバスは倒せないわよ？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;The only weapon you can hold is the one attached to your crotch♥
+There's no way to defeat a succubus, right?
+Heehee♥</t>
+  </si>
+  <si>
     <t>目を背ける</t>
   </si>
   <si>
@@ -343,73 +459,148 @@
 もうやることはひとつしかないよねー♥</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[3]&gt; Ah♥ I'm stroking it♥
+If you stroke it while looking at succubus pussy,
+there's only one thing that can happen♥
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;はい時間切れ♥
 見てるだけで我慢汁だらだら♥
 もう逃げられないでしょ。くす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;You're out of time♥
+Just looking at it, you're dripping with pre-cum.
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;どこ見てるの？
 ねぇ、私を見なさいよ♥
 見てると我慢できなくなっちゃう弱虫なの？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Where are you looking?
+Hey, look at me♥
+Can you not get it up when you're looking at a pussy?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;くすくす♥
 ちょっとアソコ見せただけでウブな反応しちゃって。
 あんたそれでもハンターなの？</t>
   </si>
   <si>
+    <t>\ n&lt;\n[3]&gt; Heehee ♥ 
+Just a little teasing made you react like that?
+Can you even call yourself a hunter anymore?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ひとつ言っておくけど、
 『そんなもの』じゃ私たち淫魔は倒せないからね？
 武器は効かないの。もちろん知ってるわよね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Let me tell you something. 
+You can't defeat a succubus with something like that, right? 
+Weapons don't work. But you know that already.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ま、好きにしなさい。
 もっと抗ってみせてね♥
 雑魚ハンターさん♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;I hope you like it. 
+Show me more♥
+ Little succubus hunter♥</t>
+  </si>
+  <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ふふ…っ。かわいいサイズになったわね？ 
 とっても美味しそうじゃない</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Fufufu, this is a cute size, right?
+ You don't look very tasty, though.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁ……っ、や、やめて……</t>
+  </si>
+  <si>
+    <t>\n&lt;n\[1]&gt;Ah!...No...S...stop!</t>
   </si>
   <si>
     <t>突然、背後に現れたリリーが私を摘み上げ、
 自分の目の前まで持ち上げる。</t>
   </si>
   <si>
+    <t>Suddenly, Lily appeared behind me and scooped me up into her hand.
+She lifts me up right in front of her face.</t>
+  </si>
+  <si>
     <t>必死にもがくけど、今の私は8㎝もないくらいの大きさ。
 彼女の細い指すら振り払えない。</t>
   </si>
   <si>
+    <t>I struggle desperately, but I'm only about 8cm tall now.
+ I can't even fight off her pinky finger.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;やだっ！ 離して…！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;No! Let go of me...!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;うふふ……そんなこと言っても許さない。
 このまま食べてあげる</t>
   </si>
   <si>
+    <t>\n&lt; Lily&gt;"Ufufu...you're not allowed to talk to me that way.
+I'm going to eat you, just like this."</t>
+  </si>
+  <si>
     <t>ふぅ…っ。熱い吐息が吐き掛けられる。</t>
+  </si>
+  <si>
+    <t>Haaaaa... A hot, heavy sigh rolls out of her mouth.</t>
   </si>
   <si>
     <t>それだけで、アタシの身体は敏感になって……
 無理やり生やされたおちんちんがびくん、と反応してしまう。</t>
   </si>
   <si>
+    <t>Even that alone got me going...
+My cock reacts instinctively to the warmth and wetness.</t>
+  </si>
+  <si>
     <t>ふたなりの身体なんて厄介だ……これも早く、治したいのに。</t>
   </si>
   <si>
+    <t>This futanari body is obnoxious. I hope this spell wears off soon.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んんっ！！……くぅっ</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Haaaa!！……squeeze!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あらあら？ どうしたのかしら？</t>
   </si>
   <si>
+    <t>n\&lt;Lily&gt; Oh? What's wrong?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;なんでもなっ……ひゃっ！ あぁ…っ……</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;N...nothing! Ah! Ahh!</t>
   </si>
   <si>
     <t>意地悪な顔を浮かべたリリーの……大きな唇が開く。
@@ -417,21 +608,47 @@
 私が呑み込まれそうなくらいの暗黒が広がる……</t>
   </si>
   <si>
+    <t>Lily makes a devilish face, her full lips gaping open.
+Even though her mouth is only open a little bit, 
+the realization that she's going to eat me is overwhelming...</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;逃げないの？ じゃあ、遊んじゃうわよ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n&lt;Lily&gt; You're not trying to escape? Well then, 
+maybe we should play a bit?
+</t>
   </si>
   <si>
     <t>にゅるり。巨大な壁のような舌先が飛び出す。
 私は、顔どころか……上半身を丸ごと舐め上げられる。</t>
   </si>
   <si>
+    <t xml:space="preserve">The glistening tip of her massive tongue pops out.
+She drags it across not just my face, but across
+my entire upper body
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;ひぃっ！？……あっ、ああぁ～っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n&lt;[1]&gt;Aaah?! A-ah!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ちゅぷ……うふふ、ビクビク震えちゃってかーわい♪ 
 それじゃあ、いただきまーす</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Slurp... Ahaha! You're trembling♪ 
+Well then, time to eat!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;い、いやぁっ！ だめぇっ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;No! No, no!</t>
   </si>
   <si>
     <t>食べられる。このまま食べられてしまう……
@@ -439,14 +656,29 @@
 過敏になったおちんちんがびくんと震えてしまう。</t>
   </si>
   <si>
+    <t>I'm just food. She is going to eat me up at this rate.
+Even just thinking about it...
+makes my cock begin to throb.</t>
+  </si>
+  <si>
     <t>なぜか、命の危険を感じれば感じるほどよけいに張りつめて……
 痛いくらいになってしまう。</t>
   </si>
   <si>
+    <t>For some reason, the more fear I feel, the harder I get...
+it's starting to become painful.</t>
+  </si>
+  <si>
     <t>べろりっ、ぷちゅり……っ。</t>
   </si>
   <si>
+    <t>Liiiick, suuuuck.</t>
+  </si>
+  <si>
     <t>ぬめる舌が這い回るたび、私の小さな体は上下左右に動かされる。</t>
+  </si>
+  <si>
+    <t>Every movement of her slimy tongue pushes my tiny body left and right, up and down.</t>
   </si>
   <si>
     <t>大きな舌で、ずりずり……、ずりゅずりゅ……っ
@@ -454,10 +686,20 @@
 息もできないほど舐めこすられる。</t>
   </si>
   <si>
+    <t>Her massive tongue lapping... slurping...
+ It's completely smothering my face and upper body. She licks so much that I can't even breath.</t>
+  </si>
+  <si>
     <t>そして、その動きに合わせて……</t>
   </si>
   <si>
+    <t>And, because of that motion...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;きゃうんっ！ はっ、はぁあんっ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Haaaa! Aaaah! Aaahh!</t>
   </si>
   <si>
     <t>お腹の奥がきゅんきゅん疼いて、甘い声を上げさせられてしまう。
@@ -465,24 +707,49 @@
 もう、まるで抵抗なんてできる状態じゃない。</t>
   </si>
   <si>
+    <t>My insides are aching, and I can't help but cry out in a pathetic voice.
+ The feelings are too big for such a tiny body...
+I'm in no state to resist her.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……気持ちいいでしょう？ 
 ほぉら、もっともっと可愛がってあげる</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; Ufufu...It feels good, doesn't it?
+Well then, I'll have to shower you with love."</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あっ！ あぁ…っ！ だ、め……だめぇえっ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ah! Ah...! No, no, no. ...... No!</t>
   </si>
   <si>
     <t>じゅるじゅると舌が巻き付いて吸い付いてくる。
 巨大な舌はずりずりと肌の上を這って、今度は足先を唇に挟まれる。</t>
   </si>
   <si>
+    <t>The flesh coils around my body and sticks to me. 
+Her huge tongue crawls across my skin, and she pinches my toes between her lips.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あっ！？ ……や、だ……っ！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt; Wha..?!... No!!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;だぁーめ。それじゃ……あ～ん……っ♪</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Well then...aaaah♪</t>
+  </si>
+  <si>
     <t>ぱくり。ちゅぷ。</t>
+  </si>
+  <si>
+    <t>Slurrrp! Suuck!</t>
   </si>
   <si>
     <t>足先から膝まで一気に唇に吸い込まれた。
@@ -490,10 +757,21 @@
 たちまち全身に甘い痺れが広がっていく。</t>
   </si>
   <si>
+    <t>My legs, from my toes to my knees, are sucked between her lips.
+ They're tossed about violently by her tongue.
+A sweet numbness begins to spread throughout my body.</t>
+  </si>
+  <si>
     <t>腰が跳ねる。逃げられない…っ……。</t>
   </si>
   <si>
+    <t>My hips bounce against her flesh. I'm trapped.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（だめ……っ！ こんなの、ダメだよぉ……っ！！）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt; (No...! No, this is really bad...!!)</t>
   </si>
   <si>
     <t>私はハンター。サキュバスを倒す存在なんだ。
@@ -501,20 +779,40 @@
 手も足も出なくて……</t>
   </si>
   <si>
+    <t>I'm a hunter: I'm the one who's supposed to defeat the succubi.
+ But now, even with one right in front of me,
+I'm not able to fight back...</t>
+  </si>
+  <si>
     <t>ただ私は舌で弄ばれ……そして食べられようとしてる。
 それを考えるだけで、身体中が熱くなる。
 心臓が激しく脈打ち、頭がぼーっとしてくる。</t>
   </si>
   <si>
+    <t>Being toyed with by her tongue, seconds away from being eaten...
+ Just thinking about it makes my entire body hot.
+My heart throbs violently and my head becomes foggy with lust.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;さっきより大きくなってるわね。感じてるんでしょ？
 もっと気持ちよくしてあげる</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;It's gotten bigger than it was before, huh? It feels good, right? I'll make you feel even better."</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;そ、そんなわけ……っ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;No, that's not true...!</t>
   </si>
   <si>
     <t>急に見透かされたような声を掛けられる。
 でも、それさえ強烈な刺激……</t>
+  </si>
+  <si>
+    <t>She's suddenly talking like she's seen right through me.
+Now, even that is getting me hot...</t>
   </si>
   <si>
     <t>私はおちんちんをさらにびくびくと震えさせて
@@ -522,22 +820,45 @@
 お腹が熱い……、おちんちんが痛い…っ……。</t>
   </si>
   <si>
+    <t>My cock began to quiver even more,
+and I couldn't stop myself from bucking my hips. 
+Pleasure builds up in my stomach, and my dick begins to throb</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;遠慮しないで？ あなたは私の獲物。
 たっぷり味わわせてあげる。狂うくらいにね？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; "Don't resist. You're nothing but my prey.
+I'll give you a good, long taste. You're gonna go crazy in there, right?"</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;ち、違う……！ ちが…う、もん……っ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Waah, no......! I can't.........!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;あらそれ本当？ 
 それじゃあもっと奥まで味わって教えてあげないとね？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; "Oh? Am I hearing you right?
+ Then I'll have to taste you more thoroughly."</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ……っ、んひゃうぅぅっ！！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;</t>
   </si>
   <si>
     <t>突然、リリーの歯が私の太ももを挟み込む。
 きちり、鈍い痛みの刺激と……それ以上の快感。</t>
+  </si>
+  <si>
+    <t>Suddenly, Lily's teeth pinch my thighs.
+ I feel immense pressure, and pain...and more pleasure.</t>
   </si>
   <si>
     <t>ぬぢゅ……っ、ちゅるる……っ！
@@ -545,6 +866,10 @@
 一気に唇の間へ引き摺り込まれる。</t>
   </si>
   <si>
+    <t>My body is pressed even harder between her teeth. 
+I'm suddenly pulled between her lips all at once.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;！！</t>
   </si>
   <si>
@@ -552,11 +877,22 @@
 限界まで張りつめていたおちんちんが柔らかい唇に触れ……</t>
   </si>
   <si>
+    <t>Smack...
+My penis, which was already tense to the very limit, brushed against her soft lips.</t>
+  </si>
+  <si>
     <t>じゅるるるる……っ！
  一気に口内のぬるぬるの粘膜の中に突っ込んでいった。</t>
   </si>
   <si>
+    <t>Schlurrp ...!
+I quickly plunged into the slimy mucous membrane of her mouth</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;～～～ッ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;~~~gasp!!!!</t>
   </si>
   <si>
     <t>一瞬で視界がピンク色のフラッシュで染まる。思考が吹き飛ぶ。
@@ -564,7 +900,14 @@
 直接的な刺激。</t>
   </si>
   <si>
+    <t>My thoughts disappear, blown away by a pink flash of light.
+The saliva-covered tongue rubs against my cock, directly stimulating me.</t>
+  </si>
+  <si>
     <t>気が遠くなりそうなほどの衝撃。でも、まだ終わらない。</t>
+  </si>
+  <si>
+    <t>It's so much that I can't take it. But it isn't over yet.</t>
   </si>
   <si>
     <t>ぐちゅ、ぐちゅちゅちゅ……っ！
@@ -572,16 +915,33 @@
 擦るように扱きあげてきた！</t>
   </si>
   <si>
+    <t>Squish, squish...!
+My cock is sandwiched between the puffy flesh on the back of her lips 
+and the thick tip of her tongue.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ"っ！ あぁあああ～～～っ！！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Ahh..!??</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……いっぱい出していいのよ？ ほら、ほらほら！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ufufu...are you gonna squirt out a lot for me? Come on! Come on!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ、あ、あぁぁぁぁぁっ！ やっ、やだぁぁぁぁぁぁ！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Aaaaaaaaahhhhhh~ No, no!!!</t>
+  </si>
+  <si>
     <t>あっさり、限界が訪れた。</t>
+  </si>
+  <si>
+    <t>I was effortlessly brought to my limit</t>
   </si>
   <si>
     <t>どくん、どくんどくんっ！ 
@@ -589,49 +949,98 @@
 耐えられない。出ちゃう……っ！</t>
   </si>
   <si>
+    <t>Ba-dum!Ba-dum!Ba-dum!
+I can feel pleasure boiling up from the depths of my stomach.
+I'm gonna...!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;～～～っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;~~~Kkh!</t>
   </si>
   <si>
     <t>びゅるっ！ びゅるるるるっ！！ 
 声にならない悲鳴を上げて、私は勢いよく射精した。</t>
   </si>
   <si>
+    <t>With a muffled scream, I cum hard</t>
+  </si>
+  <si>
     <t>頭の中で火花が弾けて真っ白になる。何も考えられない。
 ただ、体液を吐き出しながらビクビクとおちんちんが痙攣するだけ……。</t>
   </si>
   <si>
+    <t>Fireworks explode in my head, and my mind goes white. I can't think of anything. 
+My cock begins to cramp as it continually spurts out ropes of white fluid</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ、美味しい♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ufufu, delicious♪</t>
   </si>
   <si>
     <t>満足そうに笑うリリーの声。
 舌先が動いて、吐き出した精液を残さず舐めとっていく。</t>
   </si>
   <si>
+    <t>Lily's voice surrounds me, chuckling with satisfaction.
+The tip of her tongue slurps up all the semen she's forced out of me.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁぁっ！ うあぁぁぁぁっ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Auuhhhh! Aaaahh!</t>
   </si>
   <si>
     <t>射精直後の敏感な亀頭がごりゅごりゅ擦られ、
 腰がさらにびくんびくん跳ねる。</t>
   </si>
   <si>
+    <t>My tip, still sensitive from ejaculating, is rubbed even more. 
+My hips shake violently at her touch</t>
+  </si>
+  <si>
     <t>淫魔に捕まれば、1回の射精では済まされない。
 私はその事実を身をもって思い知らされる。</t>
   </si>
   <si>
+    <t>"If you're caught by a succubus, you won't be allowed to come just once."
+ I am solemnly reminded of that fact.</t>
+  </si>
+  <si>
     <t>にゅる…っ、にゅる……、ぷちゅ、ぬちゅぷ……っ
 まるで麦粒をなぞるような小さい小さい舌先の動き。</t>
   </si>
   <si>
+    <t>Wriggle...wriggle...slurp....
+The tip of Lily's tongue waves lightly against me, like a stalk of wheat in the wind</t>
+  </si>
+  <si>
     <t>それだけで私は強引に刺激され、
 萎えたばかりのおちんちんが無理やり勃起させられていく……。</t>
   </si>
   <si>
+    <t xml:space="preserve"> I'm being forcibly stimulated by her tongue's gentle motions.
+My tired, flaccid cock began to swell back up again...</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;んふ…♪ ああでも、このまま遊んでると
 アイツらと取り合いになっちゃうから……</t>
   </si>
   <si>
+    <t>n\&lt;Lily&gt; Hmm...♪ If that's how you're gonna be,
+ I'll have to play rough with you...</t>
+  </si>
+  <si>
     <t>にゅるり……っ。
 唇がゆっくり広がる感触。</t>
+  </si>
+  <si>
+    <t>Squiish...
+Her plush lips slowly begin to part.</t>
   </si>
   <si>
     <t>しっかり挟み込まれていた腰が解放された……
@@ -639,22 +1048,48 @@
 全身がにゅるにゅると口の中へ吸い込まれはじめる。</t>
   </si>
   <si>
+    <t>My waist, so firmly held before, had been released...
+ No sooner did I think this, then she began to suck my entire body into her mouth.</t>
+  </si>
+  <si>
+    <t>My waist, so firmly held before, had been released...
+No sooner did I think this, then she began to suck my entire body into her mouth.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;…えっ！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;...wha?!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;次はお口の中でもっと遊びましょう？ 
 ……ドロドロのぐにゅぐにゅにしてあげる</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Let's play with you in my mouth a little more, shall we?
+...I'll make you alllll messy.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;そんな……や、やだ、やだぁ……っ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I can't... oh no,no ......!</t>
   </si>
   <si>
     <t>そんなの嫌だ。
 こんなに興奮させられた状態で全身舐められたら……！</t>
   </si>
   <si>
+    <t>I hate this.
+If I'm licked so much while I'm so excited, I'll...!</t>
+  </si>
+  <si>
     <t>でも、抵抗しようにも腕も足も動かせない。
 必死で腰をよじるけど、それも舌先だけで押さえつけられる。</t>
+  </si>
+  <si>
+    <t>I can't move my arms or legs in order to fight back.
+ I desperately twist my hips, but she can hold me down with just the tip of her tongue.</t>
   </si>
   <si>
     <t>…ちゅぷっ……。
@@ -662,14 +1097,38 @@
 私はあっけなくリリーの口内に引きずり込まれた。</t>
   </si>
   <si>
+    <t>~chupu~ 
+ With this pitiful sound from her lips,
+I was dragged effortlessly into Lily's mouth.</t>
+  </si>
+  <si>
+    <t>~chupu~
+With this pitiful sound from her lips,
+I was dragged effortlessly into Lily's mouth.</t>
+  </si>
+  <si>
     <t>くちゅぅぅぅぅ……っ</t>
   </si>
   <si>
+    <t>Suu~uuu~cck</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;ひぎっ！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;!?</t>
   </si>
   <si>
     <t>再度の激しい目眩を伴う吸引。
 射精直後のおちんちんを襲う激しい摩擦。</t>
+  </si>
+  <si>
+    <t>Lily continues sucking.
+ It's a violent pleasure that is hard to resist after cumming once already.</t>
+  </si>
+  <si>
+    <t>Lily continues sucking.
+It's a violent pleasure that is hard to resist after cumming once already.</t>
   </si>
   <si>
     <t>ずりゅずりゅずりゅっ。
@@ -677,10 +1136,20 @@
 おちんちんごと全身を舐めしゃぶられる。</t>
   </si>
   <si>
+    <t>My whole body is pressed against the bumpy surface of her tongue. 
+She licks and sucks every inch of me.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（こ、んなの……無理っ！ 無理矢理、出され……出ちゃう……っ！）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt; (Ah! No!...She's forcing me to....I'm gonna...!)</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ、あぁ……っ、ああぁぁぁ……っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt; Ah! Aah...! Aaaaa..!</t>
   </si>
   <si>
     <t>どくんっ！ どくんどくんっ！！ 
@@ -688,8 +1157,17 @@
 再び奥底から熱く激しくせり上がってくる射精感。</t>
   </si>
   <si>
+    <t>Ba-dum! Ba-dum! Ba-dum!!
+My heart's gonna explode!
+Burning pleasure erupts inside me</t>
+  </si>
+  <si>
     <t>腰が震える、跳ねる。でも動けない。
 舌肉と上顎にしっかり挟みつぶされて、全身の痙攣まで味わわれる。</t>
+  </si>
+  <si>
+    <t>I desperately want to thrust my hips. But I'm totally stuck.
+She laps at my entire body, which is caught between her tongue and the roof of her mouth.</t>
   </si>
   <si>
     <t>ずりゅん…っ、ずりゅりゅ……っ。
@@ -697,30 +1175,60 @@
 私の全身がごりゅごりゅと擦られてく。</t>
   </si>
   <si>
+    <t>Lily's tongue and hard palette take turns moving back and forth...
+My whole body is rubbed against the slick flesh.</t>
+  </si>
+  <si>
     <t>ぬりゅぬりゅ、ぢゅるぢゅる……っ！
 唾液が全身に絡んで沁みこんで……
 肌もおちんちんもどんどんヌルヌルにされる。</t>
   </si>
   <si>
+    <t>Schlorp, slurp...!
+I'm completely smeared in suffocating saliva.
+My skin and cock become more and more slimy every second</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あらあら、また出ちゃうの？ いいわよ、いっぱい出して♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Oh, are you gonna come again? Squirt out a lot for me♪</t>
   </si>
   <si>
     <t>リリーの言葉と同時に、
 下半身全体が搾り上げられるように強く締め付けられた。</t>
   </si>
   <si>
+    <t>As she spoke, 
+Lily's muscles tightened around my entire lower body.</t>
+  </si>
+  <si>
     <t>どっぷり分厚い舌肉におちんちんがぐじゅぐじゅ埋まって、
 敏感な先端が温かい粘膜で一気に擦られて……っ</t>
   </si>
   <si>
+    <t>My cock is buried in the ridges of her thick tongue.
+The tip is massaged by the soft, sticky flesh</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁぁぁぁーーーっ！！ んぅあぁぁぁぁぁぁぁぁぁっ！！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt; Ahhhh!! Uaaaahh!!!</t>
+  </si>
+  <si>
     <t>びゅるるるっ！！ びゅーーーっ！！ びゅるるるるるるっ！！！</t>
+  </si>
+  <si>
+    <t>Splooosh! Stroke, stroke!! Sploosh!</t>
   </si>
   <si>
     <t>二度目の射精。
 一度目の射精よりさらに勢いよく、熱いものが尿道を通っていく。</t>
+  </si>
+  <si>
+    <t>I come again.
+It's even harder than the first time. Hot cum gushes out of the tip of my cock</t>
   </si>
   <si>
     <t>どぼ、どぼどぼ……
@@ -728,7 +1236,14 @@
 ぼちゃぼちゃ波を立てる。</t>
   </si>
   <si>
+    <t>Excess semen pools between my groin and Lily's tongue.
+ It froths and bubbles against the slippery pink surface.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;はぁ……っ、あぁ……っ、んぅ…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt; Haaa....haa....</t>
   </si>
   <si>
     <t>あまりの快感に意識が遠ざかる。
@@ -736,25 +1251,50 @@
 このまま…このまま、眠ってしまいたい……楽になりたい……っ…</t>
   </si>
   <si>
+    <t xml:space="preserve">The excessive pleasure is making me space out.
+ This isn't good..!
+ I just..I just want to fall asleep. </t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あら、だめよ？ 気を喪わせてもらえるわけないじゃない</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; "Oh? You're not disappointed, are you?"</t>
+  </si>
+  <si>
     <t>ぬりゅっ！ ぬにゅるるるっ……</t>
   </si>
   <si>
+    <t>Smeaarr! Squiiish....</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んっ！！ ひぃ…っ、んふうぅぅぅ……っ！！</t>
+  </si>
+  <si>
+    <t>Squish! Draaag!</t>
   </si>
   <si>
     <t>そんな甘い考えを見透かすような言葉と共に、
 口内の舌肉が激しく前後する。</t>
   </si>
   <si>
+    <t>The fleshy surface of her tongue moves back and forth violently
+as it forms honeyed, poisonous words.</t>
+  </si>
+  <si>
     <t>根元から裏筋にかけて……、つま先から頭にかけて……
 何度も粘膜が往復し、おちんちんも全身も、まとめて撫で回される。</t>
   </si>
   <si>
+    <t>From my crotch to my back...from my toes to my head...
+the slimy surface rubs against me, stroking my genitals and body at the same time.</t>
+  </si>
+  <si>
     <t>上下に動く喉元がごくっ、こく……と、
 腰まわりの溜まった精液を喉に流し込んでいく。</t>
+  </si>
+  <si>
+    <t>The semen swirling around my waist begins to drain down into the back of Lily's throat.</t>
   </si>
   <si>
     <t>精液だけじゃない。
@@ -762,61 +1302,117 @@
 喉へと流されていく……</t>
   </si>
   <si>
+    <t>It's not just the semen;
+ This time my body is also being gulped down, slipping on her curved tongue...
+slipping right into her throat.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;え……っ！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Wha...?</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;もうわかっているでしょ？ 最後の射精はおなかの中。
 ……ん、さっきより濃くて美味し♪</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Oh, have you figured it out?
+ Your last splashes of semen are in my belly. It's thicker and tastier than before ♪</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;や、やだ……飲まないでっ！ 呑み込まないでぇぇ……っ……</t>
+  </si>
+  <si>
+    <t>\n&lt;n[1]&gt;No! Don't do it! Don't swallow me!"</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;だめよ。いまさらアイツらに取られるのもいやだし……
 私の胃で射精しながら溶けなさい♪</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;Lily&gt;No. I can't let the others have you anymore. 
+Cum while you're melting inside my stomach ♪ </t>
+  </si>
+  <si>
     <t>ずりゅずりゅ、ずりゅりゅりゅ～っ。
 リリーの舌がさらに持ち上がる。</t>
   </si>
   <si>
+    <t>Lily's tongue lifts me up even higher.</t>
+  </si>
+  <si>
     <t>私はおちんちんごと粘膜の上を滑って……
 ずるずる、喉奥へ落ちていく。</t>
   </si>
   <si>
+    <t>Her slippery flesh slides against my cock...
+ I lose my balance and fall towards the back of her throat.</t>
+  </si>
+  <si>
     <t>にゅるるる……っ！
 足先が口内よりもずっと熱くて柔らかく溶けた部分に沈む。</t>
   </si>
   <si>
+    <t>My toes sink into the velvety flesh of her throat, which is both hotter and softer than her mouth.</t>
+  </si>
+  <si>
     <t>舌がさらにせりあがって、
 全身が喉奥の柔らかい部分に押し込まれ……っ。</t>
   </si>
   <si>
+    <t>Her tongue rises up further,
+ pushing my whole body into the pusling opening at the back of her throat.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（や、ばい……これ、死んじゃう……）</t>
+  </si>
+  <si>
+    <t>\n&lt;n[1]&gt;(No,no...this is it for me...)</t>
   </si>
   <si>
     <t>私の身体がリリーのお腹の中に沈んでいく。
 もう、止められない……止める方法がない……っ</t>
   </si>
   <si>
+    <t>My body begins its descent towards Lily's stomach.
+ There's no way to stop it now.</t>
+  </si>
+  <si>
     <t>ん……っ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmph ♪ </t>
   </si>
   <si>
     <t>こくり……っ。
 リリーの喉が変なくらいに可愛らしく鳴って……</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Lily's throat made an oddly cute noise...</t>
+  </si>
+  <si>
     <t>MP_SET_MOVIE e23_c4_2</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;うあぁぁぁぁぁぁぁぁぁ～～～っ！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Uuuaaaaahhhhhhhh!!!!</t>
   </si>
   <si>
     <t>精液を飲むのと同じように。
 いともあっさり簡単に、私はじゅるんっと飲まれた。</t>
   </si>
   <si>
+    <t>I was swallowed down as easily as she would swallow a load of cum.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;ああっ！　ああぁぁぁぁ……っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ah!　Ahhhh ......!!!!</t>
   </si>
   <si>
     <t>MP_SET_MOVIE D-gateさん丸飲み</t>
@@ -824,6 +1420,10 @@
   <si>
     <t>ずりゅずりゅずりゅ…っ！ 
 細い喉肉を勢いよく滑る。滑り降りる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shlick,  squeeeze, rub, rub… 
+I'm squeezed forcefully down her tight throat. Sliding further down inside her.</t>
   </si>
   <si>
     <t>全身が激しく擦られる、けど……
@@ -831,11 +1431,24 @@
 落ちる。</t>
   </si>
   <si>
+    <t xml:space="preserve">My body is crushed by her internal muscles...
+but, lubricated by cum and saliva, I keep sliding.
+Deeper, deeper down.
+</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……♪ 中の様子はどう？ 
 全身ぐちゅぐちゅに揉みつぶされちゃうんだから</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ufufu...♪  How does it feel inside me?
+ Soon your whole body will be and squished and squeezed</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁっ、あんぅ……！ ひっ、や、めてぇ……！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ah, augh!......! No, no, no! ......!</t>
   </si>
   <si>
     <t>食道の締め付けがどんどん強くなる。
@@ -843,22 +1456,44 @@
 リリーの体内を下へ下へ進んでいく。</t>
   </si>
   <si>
+    <t>The rippling of the esophagus grows stronger and stronger. 
+The tight walls of flesh lewdly part
+as I'm pushed deeper into Lily's body.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んっ、あ……っ！ もぉだめぇぇ……っ</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt; Oh, ah......! Oh no... ......</t>
   </si>
   <si>
     <t>とうとう出口にたどり着き、
 全身を包んでいた粘膜の圧迫感が不意に消えた。</t>
   </si>
   <si>
+    <t xml:space="preserve">Finally I arrive at the end of her throat,
+free of the suffocating flesh enveloping my whole body.
+</t>
+  </si>
+  <si>
     <t>どぷん……っ！
 何かを通り抜けて、全身が熱い粘膜に包まれる。</t>
   </si>
   <si>
+    <t>Splurt...!
+I'm pushed through a tight ring of muscle, and I'm again wrapped in slimy flesh</t>
+  </si>
+  <si>
     <t>MP_SET_MOVIE D-gateさん丸飲み2</t>
   </si>
   <si>
     <t>解放された安堵を感じる暇もなく、
 落下した身体は再度どろどろの粘液に埋まる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't have time to feel any relief at being freed from Lily's throat.
+My falling body is buried once again in thick, slimy mucous.
+</t>
   </si>
   <si>
     <t>まるで膣内にいるみたいな感触。
@@ -866,11 +1501,23 @@
 全身が揉みこまれるみたい。</t>
   </si>
   <si>
+    <t>It feels like being inside a huge vagina. 
+The slimy, sticky walls constantly undulate...
+its folds rub my entire body.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ、あぁ……こ、ここ……ここって……</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ah...Aaa! This...This is...</t>
   </si>
   <si>
     <t>膣ではない。やさしい空間でもない。
 ……リリーの胃袋。食物を消化するための器官。</t>
+  </si>
+  <si>
+    <t>But it's not a vagina; this is no friendly space. 
+...This is Lily's stomach: An organ for digesting food.</t>
   </si>
   <si>
     <t>証拠に、先に喉を通った精液が胃液で薄められ
@@ -878,30 +1525,63 @@
 もはや逃げ場のない終点にたどり着いてしまった。</t>
   </si>
   <si>
+    <t xml:space="preserve">Wet threads stretch from the walls, the remnants of my previously swallowed semen,
+mixed with Lily's gastric juices. 
+I've reached the end, a point from which I can no longer escape. </t>
+  </si>
+  <si>
     <t>叩きつけるような実感で、頭がぐらぐらと揺れる。
 腰がきゅうっと縮む……</t>
   </si>
   <si>
+    <t>My head sways and pounds, as if struck by a blow.
+My groin throbs.</t>
+  </si>
+  <si>
     <t>新しい獲物を感じたのか、
 全身に絡みつく柔らかな粘膜がぎゅう……っと締まってゆく。</t>
   </si>
   <si>
+    <t>Does her stomach see me as just another piece of food?
+The smooth flesh surrounding my body squeezed hard around me.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んんんんんん！？ ひゃううぅぅ……っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;nnh! Hyahhhhh ......!!!!</t>
   </si>
   <si>
     <t>強烈な締め付けが全身を一気に刺激し……
 嚥下のショックで収まりかけていた絶頂感が一気に蘇る。</t>
   </si>
   <si>
+    <t>The pressure stimulates my entire body all at once.
+Whatever relief I felt from climaxing in Lily's throat has vanished.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;手加減なんて無理よ？ だって……胃は勝手に動くの。
 私の意志なんて関係ないからね</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; There's no way I can go easy on you. Because...
+my stomach does whatever it wants.
+What I want no longer matters.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あ、あうぅ……！！ 
 や、やらぁ……っ、イくっ、またイっちゃうよぉ……！</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;\n[1]&gt;Ah! Ahh...!
+Yesss!!! I'm going to come again!
+</t>
+  </si>
+  <si>
     <t>ぶしゅわああああっ！ ぴちちち……っ！</t>
+  </si>
+  <si>
+    <t>SPRAAAAY!! sploosh, sploosh...!</t>
   </si>
   <si>
     <t>限界なのはおちんちんだけじゃなかった。
@@ -909,22 +1589,44 @@
 内側がキュンキュンと痙攣し、大量の愛液を噴き出す。</t>
   </si>
   <si>
+    <t>It's not just just my cock which is at its limit;
+my vagina beneath it throbs as well...
+The inner walls of my pussy clench, squirting out liquid bliss.</t>
+  </si>
+  <si>
     <t>リリーの言う通り、胃は彼女の意志と関係なく動いている。
 ……つまりそれは私がどれだけ抵抗しても、何の影響もない。</t>
   </si>
   <si>
+    <t>As Lily said, her stomach is moving of its own free will.
+...in other words, no matter how much I struggle, I'm at its mercy.</t>
+  </si>
+  <si>
     <t>たとえリリーの気が変わったとしても、
 胃は容赦なく私を責め立て溶かし続ける……</t>
   </si>
   <si>
+    <t>Even if Lily changes her mind, her stomach will still relentlessly rape and digest me.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁぁぁ……だ、だっめ……ぇ……！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;No...noooo....this is bad....！</t>
   </si>
   <si>
     <t>私を包んでいる肉の壁が、ゆっくりと動き始める。
 無数の肉襞がぞりゅぞりゅと全身を擦りあげてくる。</t>
   </si>
   <si>
+    <t>The walls of flesh around me slowly begin to move.
+Countless fleshy folds rub against my body.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁっ、ああぁ～っ！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ah, ahhhh!</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（やだぁ、やだぁぁぁっ！ ……そこは、
@@ -932,27 +1634,54 @@
 絶対、だめっ、だめだめっ気持ちい…っあぁぁぁ……！！）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt; (No! I don't like it! 
+I shouldn't feel this way...!!)</t>
+  </si>
+  <si>
     <t>全身くまなく撫でまわされる感覚に、身体がガクガク震えだす。
 特に敏感なお尻に、クリトリスに、
 粘液がたっぷり絡まった粘膜がまとわりついてくる。</t>
   </si>
   <si>
+    <t>The slippery sensations all over make me quiver.
+The sticky, mucous-covered walls
+adhere themselves to my ass and my clit.</t>
+  </si>
+  <si>
     <t>ぬちゅ、ぬちゅ……っ、くちゅっ。
 くりゅっ、にちゅちゅ……っ！！</t>
   </si>
   <si>
+    <t>Squelch, squelch, suck...
+Knead, suck...!!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;―――～～～～ッ！！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;―――～～～～！！！</t>
+  </si>
+  <si>
     <t>全身が溶ける。溶かされる。</t>
+  </si>
+  <si>
+    <t>My entire body is melting. I'm melting.</t>
   </si>
   <si>
     <t>意識が飛びそうになるほどの甘い快感に犯されて――
 五感と思考が溶けていく。</t>
   </si>
   <si>
+    <t xml:space="preserve">I'm being raped by a syrupy pleasure that almost lulls me into unconsciousness. 
+My thoughts and senses melt away. </t>
+  </si>
+  <si>
     <t>気が狂うほどに熱い粘膜と胃液に浸されて――
 肌と肉がとろけていく。</t>
+  </si>
+  <si>
+    <t>Surrounded by unbelievably hot flesh and gastric juices--
+my very skin and flesh are melting away.</t>
   </si>
   <si>
     <t>強烈な融解感。おかしくなりそうな蕩酔感。
@@ -960,7 +1689,15 @@
 私は五感ごと狂わされ全身でぐちゃぐちゃになる。</t>
   </si>
   <si>
+    <t>The perverseness of it all almost drives me crazy. 
+Though I'm just being digested in the stomach of a succubus...
+the sensory overload blasts my mind into uselessness.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んんぅっ！？ んっ、んぐぅぅ……っ！！</t>
+  </si>
+  <si>
+    <t>\Ўn&lt;\n[1]&gt;nn! Mmmmmmmmmm...... ......!</t>
   </si>
   <si>
     <t>どくん……！ びゅーーっ！！！
@@ -968,12 +1705,25 @@
 衝動のまま腰が突きあがり、勢いよく精液が噴き出す。</t>
   </si>
   <si>
+    <t>Ba-dum! Spurt!
+I no longer have any reason to hold back.
+My hips thrust with a bestial impulse, and semen erupts from my body.</t>
+  </si>
+  <si>
     <t>頭の中でぷちゅっと、
 何かが音を立てて壊れるような音がしたような気がして……</t>
   </si>
   <si>
+    <t>Craaack! 
+In my mind I hear something shatter, like broken glass.</t>
+  </si>
+  <si>
     <t>腰をびくんびくんと激しく跳ねさせながら、
 おなかの水分をすべて吐き出すように射精する。</t>
+  </si>
+  <si>
+    <t>My hips bounce uncontrollably.
+I ejaculate as if I'm pouring out all the liquid left inside me.</t>
   </si>
   <si>
     <t>突き出す腰は快楽から逃げるどころか、
@@ -981,22 +1731,45 @@
 連鎖する快楽からはどの方向へも逃げることができない。</t>
   </si>
   <si>
+    <t>Rather than trying to avoid their source of pleasure,
+my crotch completely bury itself between Lily's gastric folds...
+No matter where I turn, I can't escape this unending chain of pleasures.</t>
+  </si>
+  <si>
     <t>ただひたすらに衝き上げるような激しすぎるオスの快楽……
 ただひたすらに溶け崩れるような甘ったるいメスの悦楽……</t>
   </si>
   <si>
+    <t>The pleasure of my male parts, which simply urge me to indulge...
+The sweet, delicate pleasure of my female parts which ebbs and flows like waves...</t>
+  </si>
+  <si>
     <t>無数の快感に同時に溺れ、
 息も絶え絶えに喘ぐしかない。震えるしかない。</t>
   </si>
   <si>
+    <t>Drowning in continuous, simultaneous orgasms,
+my body can do nothing but convulse.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んんんんん！！ ……んんんーーっ！！ 
 …んああぁぁぁぁぁぁっ！！</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Hnnnnn! ...... Unnnh!!!! 
+...nhhhhh!!!!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……どう？ 美味しい？ 私はとっても美味しいわよ？</t>
   </si>
   <si>
+    <t>/n&lt;Lily&gt; Ufufufu. How is it? Do you like it? You're absolutely delicious, you know?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;～～っ！……っ！……っ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;～～！…！…！</t>
   </si>
   <si>
     <t>ぶんぶんと、必死になって首を振る。否定する。拒絶する。
@@ -1004,22 +1777,47 @@
 こんなの、耐えられるわけがないから……</t>
   </si>
   <si>
+    <t xml:space="preserve">Maybe she's right. I desperately shake my head.  I deny it.
+If I give in, my mind will break entirely...
+There's no way I'll be able to stand it...
+</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;そっか。じゃあ……
 もっともっと味あわせて、教え込んであげるわね</t>
   </si>
   <si>
+    <t xml:space="preserve">/n&lt;Lily&gt; I see. Well then...
+I'll teach you a little lesson, and love you more and more.
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;～～～っ！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;～～～！？</t>
   </si>
   <si>
     <t>必死の抵抗を切り捨てるようなリリーの無情な言葉。
 声にもならない悲鳴が漏れる。</t>
   </si>
   <si>
+    <t>Lily's heartless words overcome my desperate resistance.
+A silent cry bursts forth from me.</t>
+  </si>
+  <si>
     <t>私の反応を楽しむように胃蠕動が激しくなり、
 耳奥までぐちゅぐちゅと水音が沁みこむ。</t>
   </si>
   <si>
+    <t>The rippling movements of her stomach walls intensify, as if enjoying my reaction.
+The glorping and bubbling of her stomach juices invade my ears.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;ひゃうんっ、ああっ、ああっ……！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Uooah, ah, ah......!</t>
   </si>
   <si>
     <t>ぞくぞくするようなびくびくするような強烈すぎる感覚。
@@ -1027,12 +1825,26 @@
 私の手足から力が溶けていく。</t>
   </si>
   <si>
+    <t>The feelings are too intense, bordering on twinges of panic. 
+The overwhelming feelings intensify, flooding my heart and mind.
+My arms and legs grow weak.</t>
+  </si>
+  <si>
     <t>かくり、と……倒れ込むことさえ許されず、
 全身に纏いつく粘膜に押し止められる。</t>
   </si>
   <si>
+    <t>I'm imprisoned by fleshy walls which won't even let me lay down.
+The powerful stomach muscles cling to my body and hold me in place.</t>
+  </si>
+  <si>
     <t>そのせいで両胸の先端が
 包み込む粘膜へぐりぐりと押し付けられ、潰れて擦られる。</t>
+  </si>
+  <si>
+    <t>The squeezing causes my nipples 
+to be pinched and kneaded 
+as they're enveloped by countless fleshy folds.</t>
   </si>
   <si>
     <t>びりびりぃ…っ！ 
@@ -1040,20 +1852,41 @@
 脳がどろりと溶ける感じがする。</t>
   </si>
   <si>
+    <t xml:space="preserve">Bzzzzt...!
+A sensation like a lightning bolt crahes down from my chest to my groin.
+It feels like my brain is melting in its wake.
+</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（ああああああぁぁぁっ！！）</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;(Aaaahhh!)</t>
+  </si>
+  <si>
     <t>っ～～！！</t>
   </si>
   <si>
+    <t>Woaah!</t>
+  </si>
+  <si>
     <t>全身を挟み込んで蠢いていた胃壁の肉襞がまた、一斉に動き出す。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fleshy folds of Lily's stomach, which had been squirming around me before, renew their assault. </t>
   </si>
   <si>
     <t>ぞりゅぞりゅっ、ぞりゅりゅ……っ、
 ぞりゅぞりゅぞりゅぅぅぅ……っ！！</t>
   </si>
   <si>
+    <t>Rub, rub, knead, rub</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;い"あ"あ"あ"ん"ん"ん"ん"っっ―――！！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hnnnnhhh!</t>
   </si>
   <si>
     <t>声もなく絶叫する。喉を搾りつくしたような音しか出ない。
@@ -1061,54 +1894,111 @@
 肉襞で押しつぶされたまま擦られ続ける。</t>
   </si>
   <si>
+    <t>I scream voicelessly, producing nothing but a throaty wheeze. 
+Her stomach licks and massages me all over.
+I'm rubbed even while being crushed in the folds of her flesh.</t>
+  </si>
+  <si>
     <t>もう全身はどろどろの胃液まみれ。
 さっきまで糸を引いてた精液ももはや影も形もない。</t>
   </si>
   <si>
+    <t>My entire body is plastered in her viscous stomach juices.
+The strings of semen I noticed earlier have now become ghostlike and amorphous.</t>
+  </si>
+  <si>
     <t>呑み込まれてから時間が経ったせいで、
 増えた胃液に混ざって消化された……</t>
   </si>
   <si>
+    <t xml:space="preserve">My cum was swallowed down long before I was.
+Since then, its been mixed with her stomach acid and digested...
+</t>
+  </si>
+  <si>
     <t>そんな状態で激しい上下運動を繰り返しすおちんちんは、
 もう快感どころではない。</t>
   </si>
   <si>
+    <t xml:space="preserve">My cock is battered up and down again and again...
+This isn't even about pleasure anymore.
+</t>
+  </si>
+  <si>
     <t>何度もすり潰すような抽送を繰り返されて、
 いつ射精したかももうわからなくて……</t>
   </si>
   <si>
+    <t>Lily's body continually constricts and milks me.
+I don't even notice when she makes me cum anymore...</t>
+  </si>
+  <si>
     <t>それこそ、本当に溶けてしまっているんじゃないかと
 思うぐらいにぐちゅぐちゅで……</t>
   </si>
   <si>
+    <t>I had thought it was just my cum that was melting.
+Everything was so wet that I thought...</t>
+  </si>
+  <si>
     <t>今の私はリリーの中でドロドロに溶け、混ざるだけ……
 でも、止まらない。止められない。</t>
   </si>
   <si>
+    <t>Now I'm just melting into mush, becoming one with Lily...
+But I can't stop. Not anymore.</t>
+  </si>
+  <si>
     <t>この地獄のような快楽はどこまで続くのか。
 このまま私はどうなってしまうのか。</t>
   </si>
   <si>
+    <t>How long will this hellish pleasure go on for?
+What will become of me?</t>
+  </si>
+  <si>
     <t>恐ろしいけど……もうどうしようもない。
 快楽と消化で溶けるだけしかできない。</t>
   </si>
   <si>
+    <t>Maybe it's horrible, but...there's nothing I can do at this point.
+I'm melting from both the pleasure and the digestive juices.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……お腹の中はもうぐちゅぐちゅね。
 私に消化されるのは気持ちいい？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ufufu...My belly is already so goopy. 
+Does it feel that good to be digested by me?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;んんっ……んむぅ……あぁぁぁぁ……っ</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;nnnnn......mmmmm......aahhhhhhhh......</t>
   </si>
   <si>
     <t>違う、本当は嫌。助けて欲しい。誰かお願いだから止めて。
 だけど……</t>
   </si>
   <si>
+    <t>No, I really don't want this. I need help. Please, someone. Make it stop.
+Although...</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;嫌がっちゃうの？
 だめね、嘘つきさんにはもっと激しくしてあげないとね</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; Oh, you don't like it?
+Then I'll have to be rougher with little Ms Liar.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;っ！？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;!</t>
   </si>
   <si>
     <t>突然一気に増える胃液。
@@ -1116,23 +2006,47 @@
 洪水になって私に襲い掛かって……</t>
   </si>
   <si>
+    <t>Suddenly, her stomach juices begin to rise.        
+Thick mucus pours down like a waterfall, 
+completely covering me.</t>
+  </si>
+  <si>
     <t>ごぼぉおぉぉぉ……っ！ 
 どぼっ、ごぶっ、ごぶごぶごぶごぶ……っ！！</t>
   </si>
   <si>
+    <t>Glooorp...!
+Splash, glub, glorp...!!!</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;～～っ！？ っ！ っ！ っ！</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;～～！？ ！ ！ ！</t>
   </si>
   <si>
     <t>口の中にも容赦なく大量の胃酸が流れ込み、
 喉から食道を通って体内を満たしていく。</t>
   </si>
   <si>
+    <t>A relentless stream of stomach acid pours down,
+filling my insides as it splashes into my mouth and down my throat.</t>
+  </si>
+  <si>
     <t>焼けつくような感覚。
 それと共に凄まじい快感が鼻を、脳を突き抜ける。</t>
   </si>
   <si>
+    <t>A tremendous burning tunnels up through my nostrils and into my brain.
+And with it, a burst of ecstasy as well.</t>
+  </si>
+  <si>
     <t>息ができない……苦しい……
 でも、身体は甘い快感を感じてびくびく跳ねまわる。</t>
+  </si>
+  <si>
+    <t>I can't breathe....everything hurts...
+but still my body convulses in luscious pleasure.</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;～～っ！！！</t>
@@ -1143,20 +2057,42 @@
 私の中身そのものが直接抜け出していくような感覚。</t>
   </si>
   <si>
+    <t>Throb, throb...clench...clench...clench....
+I have no idea how many times I've come at this point.
+It feels like everything inside me is pouring out.</t>
+  </si>
+  <si>
     <t>もう勢いなんてなく、精液はただ周囲に広がり、
 そのまま胃液に溶け消えていく……</t>
   </si>
   <si>
+    <t xml:space="preserve">My semen no longer shoots out, but spreads languidly out in a cloud around me.
+It slowly dissolves into Lily's stomach juices and fades away.
+</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あはっ。
 またイッちゃったわね、情けない。これで何回目かしら？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt; Ahaha!
+You came again. You're just pathetic. How many times have I gotten you off?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぶぅぅぅ……、んんぅぅぅぅ……っ！！ 
 んんーーーーー……</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Nooooooo....!
+ahhhhhhh...</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;消化された全身が精液みたいに噴き出す感覚ってどう？ 
 貴女はそのままとろけてしまうのよ？</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt; What it does it feel like to have your entire being spurt out of you like cum?
+You're just going to melt into nothingness, aren't you?</t>
   </si>
   <si>
     <t>だめ、だめ。何を話しかけられてももう、考えることもできない。
@@ -1164,7 +2100,15 @@
 もう私はほとんど栄養のなりかけ。</t>
   </si>
   <si>
+    <t>No, no. Despite what she's saying to me, I can no longer think. 
+My arms and legs are covered in blisters, and my skin is becoming gooey...
+I'm becoming nothing but nutrients for her now.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（たすけて……だれかたすけてぇ……）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Someone help me....someone...save me...)</t>
   </si>
   <si>
     <t>心の中でどれだけ叫んでも誰も聞いてくれない。
@@ -1172,7 +2116,15 @@
 容赦なんてない。</t>
   </si>
   <si>
+    <t>No matter how much I scream from the depths, no one can hear me.
+Lily just keeps melting me down to the tune of her joyous laughter.
+Without mercy.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（もう、限界だよ……あにき、あにき……っ……）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm at the end of my rope. ....brother, brother....agh....)</t>
   </si>
   <si>
     <t>とろぉ…、とろぉ……っ。
@@ -1180,38 +2132,75 @@
 無限に精液があふれ出す。</t>
   </si>
   <si>
+    <t>Splurt...splurt...
+From a cock that can no longer even stand on its own,
+come endless streams of semen.</t>
+  </si>
+  <si>
     <t>そのすぐ下からも、大量の愛液がとろとろ漏れだして
 とめどなく流れあふれる。</t>
   </si>
   <si>
+    <t>A large amount of love honey flows from just below it, as well.
+My pussy overflows without end.</t>
+  </si>
+  <si>
     <t>こんな状態なのに、残る感覚は全力で快楽を伝える。
 溶ける。溶かされる。だめ、気持ちいい……</t>
   </si>
   <si>
+    <t xml:space="preserve">Despite the condition I'm in, what senses I have left do their best to transmit pleasure.
+Melting away. Dissolving away. But it feels...good.
+</t>
+  </si>
+  <si>
     <t>抗いがたい蕩酔感に、すべてを奪われる融解感に……
 全身が溺れてしまって逃げ道がない。</t>
   </si>
   <si>
+    <t>An addictive feeling of perverseness, this melting feeling which steals everything away from you...
+My whole being is drowning in ecstasy and there is no way out.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;うふふ……もういいのよ？ ぜんぶ、溶けちゃいなさい……？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ufufufu....everything's okay now, right? Are you all melted away...?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;っ――！？</t>
   </si>
   <si>
     <t>最期に聞いた、ひどく優しい声……</t>
   </si>
   <si>
+    <t>That sinfully gentle voice I heard at the end....</t>
+  </si>
+  <si>
     <t>ごぼっ、ごぼぼぼぼぼぼっ！！</t>
   </si>
   <si>
+    <t>Gurgle, gurgle, guuurrrgle.....</t>
+  </si>
+  <si>
     <t>～～～―――！！！～～～～っ！！</t>
   </si>
   <si>
+    <t>~~~~~!!!! ～～～～!!!</t>
+  </si>
+  <si>
     <t>意識も視界もあたたかな闇に包まれてゆく。</t>
+  </si>
+  <si>
+    <t>My consciousness and my vision dissolve into a warm, inviting darkness.</t>
   </si>
   <si>
     <t>手足も、性器も、感覚も……
 ぜんぶ、全部熱い粘液に溶け混ざってゆく。</t>
+  </si>
+  <si>
+    <t>My limbs, my genitals, even my senses....
+All of them dissolve into the thick, hot mucus.</t>
   </si>
   <si>
     <t>脳の奥までぷちゅりと、
@@ -1219,27 +2208,37 @@
 そしてそのまま、私の身体は完全にとろけ、消化されていった。</t>
   </si>
   <si>
+    <t>It's like a gentle smooch to the very depths of my brain, and I'm...
+I feel a sweet, gentle fluid seeping into my .....
+And just like that, my body was completely and totally melted away.</t>
+  </si>
+  <si>
     <t>とろり……とろり……</t>
   </si>
   <si>
+    <t>Gloop...gloop...</t>
+  </si>
+  <si>
     <t>ちゅぷり…っ。</t>
+  </si>
+  <si>
+    <t>Schlorp...</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ん…っ。美味しかった♪ 
 ごちそうさま。\n[1]ちゃん</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Mm...you were delicious...
+Thanks for the meal, \n[1]-chan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1250,28 +2249,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1561,1639 +2572,2367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B314"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28.69140625" customWidth="1"/>
+    <col min="2" max="2" width="2.23046875" customWidth="1"/>
+    <col min="3" max="3" width="42.921875" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>152</v>
+      </c>
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>156</v>
+      </c>
+      <c r="C107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>172</v>
+      </c>
+      <c r="C115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="C116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="C117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="C122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C123" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="C127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>198</v>
+      </c>
+      <c r="C128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="C130" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>204</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>206</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>208</v>
+      </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>210</v>
+      </c>
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>212</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>214</v>
+      </c>
+      <c r="C136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>215</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="C138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C140" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="C141" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>225</v>
+      </c>
+      <c r="C142" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="C144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>231</v>
+      </c>
+      <c r="C145" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>233</v>
+      </c>
+      <c r="C146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>235</v>
+      </c>
+      <c r="C147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="C148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="C149" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C150" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="C151" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="C152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="C153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>249</v>
+      </c>
+      <c r="C154" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>251</v>
+      </c>
+      <c r="C155" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="C156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>255</v>
+      </c>
+      <c r="C157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>257</v>
+      </c>
+      <c r="C158" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>259</v>
+      </c>
+      <c r="C159" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>261</v>
+      </c>
+      <c r="C160" t="s">
+        <v>262</v>
+      </c>
+      <c r="D160" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>264</v>
+      </c>
+      <c r="C161" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="C162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>268</v>
+      </c>
+      <c r="C163" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>270</v>
+      </c>
+      <c r="C164" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="C165" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>274</v>
+      </c>
+      <c r="C166" t="s">
+        <v>275</v>
+      </c>
+      <c r="D166" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>277</v>
+      </c>
+      <c r="C167" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>279</v>
+      </c>
+      <c r="C168" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>281</v>
+      </c>
+      <c r="C169" t="s">
+        <v>282</v>
+      </c>
+      <c r="D169" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="C170" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>286</v>
+      </c>
+      <c r="C171" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>288</v>
+      </c>
+      <c r="C172" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>290</v>
+      </c>
+      <c r="C173" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="C174" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>294</v>
+      </c>
+      <c r="C175" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="C176" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>298</v>
+      </c>
+      <c r="C177" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>300</v>
+      </c>
+      <c r="C178" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="C179" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>304</v>
+      </c>
+      <c r="C180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>306</v>
+      </c>
+      <c r="C181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>308</v>
+      </c>
+      <c r="C182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>310</v>
+      </c>
+      <c r="C183" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>312</v>
+      </c>
+      <c r="C184" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>314</v>
+      </c>
+      <c r="C185" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>316</v>
+      </c>
+      <c r="C186" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>318</v>
+      </c>
+      <c r="C187" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>320</v>
+      </c>
+      <c r="C188" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>322</v>
+      </c>
+      <c r="C189" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>324</v>
+      </c>
+      <c r="C190" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>326</v>
+      </c>
+      <c r="C191" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>328</v>
+      </c>
+      <c r="C192" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="C193" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>332</v>
+      </c>
+      <c r="C194" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>334</v>
+      </c>
+      <c r="C195" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>336</v>
+      </c>
+      <c r="C196" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>338</v>
+      </c>
+      <c r="C197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>340</v>
+      </c>
+      <c r="C198" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>342</v>
+      </c>
+      <c r="C199" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>344</v>
+      </c>
+      <c r="C200" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>346</v>
+      </c>
+      <c r="C201" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="C202" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>350</v>
+      </c>
+      <c r="C203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>352</v>
+      </c>
+      <c r="C204" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>354</v>
+      </c>
+      <c r="C205" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>355</v>
+      </c>
+      <c r="C206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>357</v>
+      </c>
+      <c r="C207" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>359</v>
+      </c>
+      <c r="C208" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>362</v>
+      </c>
+      <c r="C210" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>364</v>
+      </c>
+      <c r="C211" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>366</v>
+      </c>
+      <c r="C212" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>368</v>
+      </c>
+      <c r="C213" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C214" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>372</v>
+      </c>
+      <c r="C215" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>374</v>
+      </c>
+      <c r="C216" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>376</v>
+      </c>
+      <c r="C217" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>379</v>
+      </c>
+      <c r="C219" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>381</v>
+      </c>
+      <c r="C220" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>383</v>
+      </c>
+      <c r="C221" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>385</v>
+      </c>
+      <c r="C222" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>387</v>
+      </c>
+      <c r="C223" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>389</v>
+      </c>
+      <c r="C224" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>391</v>
+      </c>
+      <c r="C225" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>393</v>
+      </c>
+      <c r="C226" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>395</v>
+      </c>
+      <c r="C227" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>397</v>
+      </c>
+      <c r="C228" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>399</v>
+      </c>
+      <c r="C229" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>401</v>
+      </c>
+      <c r="C230" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>403</v>
+      </c>
+      <c r="C231" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>405</v>
+      </c>
+      <c r="C232" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>407</v>
+      </c>
+      <c r="C233" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>409</v>
+      </c>
+      <c r="C234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>411</v>
+      </c>
+      <c r="C235" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>413</v>
+      </c>
+      <c r="C236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>415</v>
+      </c>
+      <c r="C237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>417</v>
+      </c>
+      <c r="C238" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>419</v>
+      </c>
+      <c r="C239" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>421</v>
+      </c>
+      <c r="C240" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>423</v>
+      </c>
+      <c r="C241" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>425</v>
+      </c>
+      <c r="C242" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>427</v>
+      </c>
+      <c r="C243" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>429</v>
+      </c>
+      <c r="C244" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>431</v>
+      </c>
+      <c r="C245" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>433</v>
+      </c>
+      <c r="C246" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>435</v>
+      </c>
+      <c r="C247" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>437</v>
+      </c>
+      <c r="C248" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>439</v>
+      </c>
+      <c r="C249" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>441</v>
+      </c>
+      <c r="C250" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>443</v>
+      </c>
+      <c r="C251" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>445</v>
+      </c>
+      <c r="C252" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>447</v>
+      </c>
+      <c r="C253" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>449</v>
+      </c>
+      <c r="C254" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>451</v>
+      </c>
+      <c r="C255" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>453</v>
+      </c>
+      <c r="C256" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>455</v>
+      </c>
+      <c r="C257" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>457</v>
+      </c>
+      <c r="C258" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>459</v>
+      </c>
+      <c r="C259" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>461</v>
+      </c>
+      <c r="C260" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>463</v>
+      </c>
+      <c r="C261" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>465</v>
+      </c>
+      <c r="C262" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>467</v>
+      </c>
+      <c r="C263" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>469</v>
+      </c>
+      <c r="C264" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>471</v>
+      </c>
+      <c r="C265" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>473</v>
+      </c>
+      <c r="C266" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>475</v>
+      </c>
+      <c r="C267" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>477</v>
+      </c>
+      <c r="C268" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>479</v>
+      </c>
+      <c r="C269" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>481</v>
+      </c>
+      <c r="C270" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>483</v>
+      </c>
+      <c r="C271" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>485</v>
+      </c>
+      <c r="C272" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>487</v>
+      </c>
+      <c r="C273" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>489</v>
+      </c>
+      <c r="C274" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>491</v>
+      </c>
+      <c r="C275" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>493</v>
+      </c>
+      <c r="C276" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>495</v>
+      </c>
+      <c r="C277" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>497</v>
+      </c>
+      <c r="C278" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>499</v>
+      </c>
+      <c r="C279" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>501</v>
+      </c>
+      <c r="C280" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>503</v>
+      </c>
+      <c r="C281" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>505</v>
+      </c>
+      <c r="C282" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>507</v>
+      </c>
+      <c r="C283" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>509</v>
+      </c>
+      <c r="C284" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>511</v>
+      </c>
+      <c r="C285" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>513</v>
+      </c>
+      <c r="C286" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>515</v>
+      </c>
+      <c r="C287" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>517</v>
+      </c>
+      <c r="C288" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>519</v>
+      </c>
+      <c r="C289" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>522</v>
+      </c>
+      <c r="C291" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>524</v>
+      </c>
+      <c r="C292" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>526</v>
+      </c>
+      <c r="C293" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>528</v>
+      </c>
+      <c r="C294" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>530</v>
+      </c>
+      <c r="C295" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>532</v>
+      </c>
+      <c r="C296" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>534</v>
+      </c>
+      <c r="C297" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>536</v>
+      </c>
+      <c r="C298" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>538</v>
+      </c>
+      <c r="C299" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>540</v>
+      </c>
+      <c r="C300" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>542</v>
+      </c>
+      <c r="C301" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>544</v>
+      </c>
+      <c r="C302" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>546</v>
+      </c>
+      <c r="C303" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
+        <v>548</v>
+      </c>
+      <c r="C304" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>550</v>
+      </c>
+      <c r="C305" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>551</v>
+      </c>
+      <c r="C306" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>553</v>
+      </c>
+      <c r="C307" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>555</v>
+      </c>
+      <c r="C308" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>557</v>
+      </c>
+      <c r="C309" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>559</v>
+      </c>
+      <c r="C310" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>561</v>
+      </c>
+      <c r="C311" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>563</v>
+      </c>
+      <c r="C312" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>565</v>
+      </c>
+      <c r="C313" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>567</v>
+      </c>
+      <c r="C314" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\stuff\To move\New folder\GameManager0.3.3_mod_0.46\GameLibrary\アルロメver1.4 RJ365442\アルロメver1.4 RJ365442 Translated\www\Captured-Als-To-Romeria-Translation\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17546" windowHeight="6694"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t>EV001</t>
   </si>
@@ -1102,7 +1098,7 @@
 I was dragged effortlessly into Lily's mouth.</t>
   </si>
   <si>
-    <t>~chupu~
+    <t>...chupu...
 With this pitiful sound from her lips,
 I was dragged effortlessly into Lily's mouth.</t>
   </si>
@@ -1125,10 +1121,6 @@
   <si>
     <t>Lily continues sucking.
  It's a violent pleasure that is hard to resist after cumming once already.</t>
-  </si>
-  <si>
-    <t>Lily continues sucking.
-It's a violent pleasure that is hard to resist after cumming once already.</t>
   </si>
   <si>
     <t>ずりゅずりゅずりゅっ。
@@ -2236,9 +2228,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2249,40 +2246,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -2572,197 +2557,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="28.69140625" customWidth="1"/>
-    <col min="2" max="2" width="2.23046875" customWidth="1"/>
-    <col min="3" max="3" width="42.921875" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2773,7 +2755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2781,18 +2763,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2803,7 +2785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2811,7 +2793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2819,17 +2801,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2837,7 +2819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2845,7 +2827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2861,7 +2843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2869,7 +2851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -2877,7 +2859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2885,7 +2867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2893,7 +2875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2901,7 +2883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2909,7 +2891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2917,22 +2899,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2940,12 +2922,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -2953,7 +2935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -2961,72 +2943,72 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -3042,32 +3024,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -3083,7 +3065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -3091,7 +3073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -3107,7 +3089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -3115,7 +3097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -3123,7 +3105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>120</v>
       </c>
@@ -3131,7 +3113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -3139,7 +3121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -3147,7 +3129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -3155,7 +3137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -3163,7 +3145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -3171,7 +3153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -3179,7 +3161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>134</v>
       </c>
@@ -3187,7 +3169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -3195,7 +3177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>138</v>
       </c>
@@ -3203,7 +3185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -3211,7 +3193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>142</v>
       </c>
@@ -3219,7 +3201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -3227,7 +3209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -3235,7 +3217,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3243,7 +3225,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -3251,7 +3233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -3259,7 +3241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -3267,7 +3249,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -3275,7 +3257,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>158</v>
       </c>
@@ -3283,7 +3265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>160</v>
       </c>
@@ -3291,7 +3273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -3299,7 +3281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -3307,7 +3289,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -3315,7 +3297,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -3323,7 +3305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -3331,7 +3313,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>172</v>
       </c>
@@ -3339,7 +3321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -3347,7 +3329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>176</v>
       </c>
@@ -3355,7 +3337,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -3363,7 +3345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -3371,7 +3353,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>182</v>
       </c>
@@ -3379,7 +3361,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -3387,7 +3369,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -3395,7 +3377,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -3403,7 +3385,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>190</v>
       </c>
@@ -3411,7 +3393,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>192</v>
       </c>
@@ -3419,7 +3401,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>194</v>
       </c>
@@ -3427,7 +3409,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -3435,7 +3417,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>198</v>
       </c>
@@ -3443,7 +3425,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>200</v>
       </c>
@@ -3451,7 +3433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -3459,7 +3441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -3467,7 +3449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>206</v>
       </c>
@@ -3475,7 +3457,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -3483,7 +3465,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>210</v>
       </c>
@@ -3491,7 +3473,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>212</v>
       </c>
@@ -3499,7 +3481,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>214</v>
       </c>
@@ -3507,7 +3489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -3515,7 +3497,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>217</v>
       </c>
@@ -3523,7 +3505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -3531,7 +3513,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -3539,7 +3521,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -3547,7 +3529,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>225</v>
       </c>
@@ -3555,7 +3537,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>227</v>
       </c>
@@ -3563,7 +3545,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -3571,7 +3553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -3579,7 +3561,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>233</v>
       </c>
@@ -3587,7 +3569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>235</v>
       </c>
@@ -3595,7 +3577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>237</v>
       </c>
@@ -3603,7 +3585,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -3611,7 +3593,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -3619,7 +3601,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>243</v>
       </c>
@@ -3627,7 +3609,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -3635,7 +3617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>247</v>
       </c>
@@ -3643,7 +3625,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>249</v>
       </c>
@@ -3651,7 +3633,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>251</v>
       </c>
@@ -3659,7 +3641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>253</v>
       </c>
@@ -3667,7 +3649,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>255</v>
       </c>
@@ -3675,7 +3657,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>257</v>
       </c>
@@ -3683,7 +3665,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>259</v>
       </c>
@@ -3691,7 +3673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>261</v>
       </c>
@@ -3702,7 +3684,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>264</v>
       </c>
@@ -3710,7 +3692,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -3718,7 +3700,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>268</v>
       </c>
@@ -3726,7 +3708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>270</v>
       </c>
@@ -3734,7 +3716,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -3742,7 +3724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>274</v>
       </c>
@@ -3753,7 +3735,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>277</v>
       </c>
@@ -3761,7 +3743,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>279</v>
       </c>
@@ -3769,1170 +3751,1177 @@
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>281</v>
       </c>
       <c r="C169" t="s">
         <v>282</v>
       </c>
-      <c r="D169" t="s">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
         <v>284</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
         <v>286</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
         <v>288</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
         <v>290</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
         <v>292</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
+      <c r="C175" t="s">
         <v>294</v>
       </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
         <v>296</v>
       </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
         <v>298</v>
       </c>
-      <c r="C177" t="s">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
         <v>300</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
         <v>302</v>
       </c>
-      <c r="C179" t="s">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
+      <c r="C180" t="s">
         <v>304</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
         <v>306</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
         <v>308</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
+      <c r="C183" t="s">
         <v>310</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
         <v>312</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
+      <c r="C185" t="s">
         <v>314</v>
       </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>316</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
+      <c r="C187" t="s">
         <v>318</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
         <v>320</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
+      <c r="C189" t="s">
         <v>322</v>
       </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
         <v>324</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
+      <c r="C191" t="s">
         <v>326</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
         <v>328</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
         <v>330</v>
       </c>
-      <c r="C193" t="s">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
         <v>332</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
+      <c r="C195" t="s">
         <v>334</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
         <v>336</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
+      <c r="C197" t="s">
         <v>338</v>
       </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
+      <c r="C198" t="s">
         <v>340</v>
       </c>
-      <c r="C198" t="s">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
         <v>342</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
         <v>344</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
         <v>346</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
+      <c r="C202" t="s">
         <v>348</v>
       </c>
-      <c r="C202" t="s">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
+      <c r="C203" t="s">
         <v>350</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
         <v>352</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
         <v>354</v>
       </c>
-      <c r="C205" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
         <v>355</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
+      <c r="C207" t="s">
         <v>357</v>
       </c>
-      <c r="C207" t="s">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
+      <c r="C208" t="s">
         <v>359</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
+      <c r="C210" t="s">
         <v>362</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
         <v>364</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
+      <c r="C212" t="s">
         <v>366</v>
       </c>
-      <c r="C212" t="s">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
+      <c r="C213" t="s">
         <v>368</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
+      <c r="C214" t="s">
         <v>370</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
+      <c r="C215" t="s">
         <v>372</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
+      <c r="C216" t="s">
         <v>374</v>
       </c>
-      <c r="C216" t="s">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
+      <c r="C217" t="s">
         <v>376</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
+      <c r="C219" t="s">
         <v>379</v>
       </c>
-      <c r="C219" t="s">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
+      <c r="C220" t="s">
         <v>381</v>
       </c>
-      <c r="C220" t="s">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
+      <c r="C221" t="s">
         <v>383</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
+      <c r="C222" t="s">
         <v>385</v>
       </c>
-      <c r="C222" t="s">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
+      <c r="C223" t="s">
         <v>387</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
+      <c r="C224" t="s">
         <v>389</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+      <c r="C225" t="s">
         <v>391</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
+      <c r="C226" t="s">
         <v>393</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
+      <c r="C227" t="s">
         <v>395</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
+      <c r="C228" t="s">
         <v>397</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
+      <c r="C229" t="s">
         <v>399</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
+      <c r="C230" t="s">
         <v>401</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
+      <c r="C231" t="s">
         <v>403</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+      <c r="C232" t="s">
         <v>405</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
+      <c r="C233" t="s">
         <v>407</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+      <c r="C234" t="s">
         <v>409</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
+      <c r="C235" t="s">
         <v>411</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+      <c r="C236" t="s">
         <v>413</v>
       </c>
-      <c r="C236" t="s">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+      <c r="C237" t="s">
         <v>415</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+      <c r="C238" t="s">
         <v>417</v>
       </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+      <c r="C239" t="s">
         <v>419</v>
       </c>
-      <c r="C239" t="s">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+      <c r="C240" t="s">
         <v>421</v>
       </c>
-      <c r="C240" t="s">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
+      <c r="C241" t="s">
         <v>423</v>
       </c>
-      <c r="C241" t="s">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+      <c r="C242" t="s">
         <v>425</v>
       </c>
-      <c r="C242" t="s">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
+      <c r="C243" t="s">
         <v>427</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+      <c r="C244" t="s">
         <v>429</v>
       </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+      <c r="C245" t="s">
         <v>431</v>
       </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+      <c r="C246" t="s">
         <v>433</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+      <c r="C247" t="s">
         <v>435</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+      <c r="C248" t="s">
         <v>437</v>
       </c>
-      <c r="C248" t="s">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
+      <c r="C249" t="s">
         <v>439</v>
       </c>
-      <c r="C249" t="s">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
+      <c r="C250" t="s">
         <v>441</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+      <c r="C251" t="s">
         <v>443</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
+      <c r="C252" t="s">
         <v>445</v>
       </c>
-      <c r="C252" t="s">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
+      <c r="C253" t="s">
         <v>447</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
+      <c r="C254" t="s">
         <v>449</v>
       </c>
-      <c r="C254" t="s">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
+      <c r="C255" t="s">
         <v>451</v>
       </c>
-      <c r="C255" t="s">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
+      <c r="C256" t="s">
         <v>453</v>
       </c>
-      <c r="C256" t="s">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
+      <c r="C257" t="s">
         <v>455</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
+      <c r="C258" t="s">
         <v>457</v>
       </c>
-      <c r="C258" t="s">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
+      <c r="C259" t="s">
         <v>459</v>
       </c>
-      <c r="C259" t="s">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
+      <c r="C260" t="s">
         <v>461</v>
       </c>
-      <c r="C260" t="s">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
+      <c r="C261" t="s">
         <v>463</v>
       </c>
-      <c r="C261" t="s">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
+      <c r="C262" t="s">
         <v>465</v>
       </c>
-      <c r="C262" t="s">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
+      <c r="C263" t="s">
         <v>467</v>
       </c>
-      <c r="C263" t="s">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
+      <c r="C264" t="s">
         <v>469</v>
       </c>
-      <c r="C264" t="s">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
+      <c r="C265" t="s">
         <v>471</v>
       </c>
-      <c r="C265" t="s">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
+      <c r="C266" t="s">
         <v>473</v>
       </c>
-      <c r="C266" t="s">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
+      <c r="C267" t="s">
         <v>475</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
+      <c r="C268" t="s">
         <v>477</v>
       </c>
-      <c r="C268" t="s">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
+      <c r="C269" t="s">
         <v>479</v>
       </c>
-      <c r="C269" t="s">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
+      <c r="C270" t="s">
         <v>481</v>
       </c>
-      <c r="C270" t="s">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
+      <c r="C271" t="s">
         <v>483</v>
       </c>
-      <c r="C271" t="s">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
+      <c r="C272" t="s">
         <v>485</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
+      <c r="C273" t="s">
         <v>487</v>
       </c>
-      <c r="C273" t="s">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
+      <c r="C274" t="s">
         <v>489</v>
       </c>
-      <c r="C274" t="s">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
+      <c r="C275" t="s">
         <v>491</v>
       </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
+      <c r="C276" t="s">
         <v>493</v>
       </c>
-      <c r="C276" t="s">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
+      <c r="C277" t="s">
         <v>495</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
+      <c r="C278" t="s">
         <v>497</v>
       </c>
-      <c r="C278" t="s">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
+      <c r="C279" t="s">
         <v>499</v>
       </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
+      <c r="C280" t="s">
         <v>501</v>
       </c>
-      <c r="C280" t="s">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
+      <c r="C281" t="s">
         <v>503</v>
       </c>
-      <c r="C281" t="s">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
+      <c r="C282" t="s">
         <v>505</v>
       </c>
-      <c r="C282" t="s">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
+      <c r="C283" t="s">
         <v>507</v>
       </c>
-      <c r="C283" t="s">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
+      <c r="C284" t="s">
         <v>509</v>
       </c>
-      <c r="C284" t="s">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
+      <c r="C285" t="s">
         <v>511</v>
       </c>
-      <c r="C285" t="s">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
+      <c r="C286" t="s">
         <v>513</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
+      <c r="C287" t="s">
         <v>515</v>
       </c>
-      <c r="C287" t="s">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
+      <c r="C288" t="s">
         <v>517</v>
       </c>
-      <c r="C288" t="s">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
+      <c r="C289" t="s">
         <v>519</v>
       </c>
-      <c r="C289" t="s">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
+      <c r="C291" t="s">
         <v>522</v>
       </c>
-      <c r="C291" t="s">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
+      <c r="C292" t="s">
         <v>524</v>
       </c>
-      <c r="C292" t="s">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
+      <c r="C293" t="s">
         <v>526</v>
       </c>
-      <c r="C293" t="s">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
+      <c r="C294" t="s">
         <v>528</v>
       </c>
-      <c r="C294" t="s">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
+      <c r="C295" t="s">
         <v>530</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
+      <c r="C296" t="s">
         <v>532</v>
       </c>
-      <c r="C296" t="s">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
+      <c r="C297" t="s">
         <v>534</v>
       </c>
-      <c r="C297" t="s">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
+      <c r="C298" t="s">
         <v>536</v>
       </c>
-      <c r="C298" t="s">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
+      <c r="C299" t="s">
         <v>538</v>
       </c>
-      <c r="C299" t="s">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
+      <c r="C300" t="s">
         <v>540</v>
       </c>
-      <c r="C300" t="s">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
+      <c r="C301" t="s">
         <v>542</v>
       </c>
-      <c r="C301" t="s">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
+      <c r="C302" t="s">
         <v>544</v>
       </c>
-      <c r="C302" t="s">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
+      <c r="C303" t="s">
         <v>546</v>
       </c>
-      <c r="C303" t="s">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
+      <c r="C304" t="s">
         <v>548</v>
       </c>
-      <c r="C304" t="s">
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
+      <c r="C305" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
         <v>550</v>
       </c>
-      <c r="C305" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
+      <c r="C306" t="s">
         <v>551</v>
       </c>
-      <c r="C306" t="s">
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
+      <c r="C307" t="s">
         <v>553</v>
       </c>
-      <c r="C307" t="s">
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
+      <c r="C308" t="s">
         <v>555</v>
       </c>
-      <c r="C308" t="s">
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
+      <c r="C309" t="s">
         <v>557</v>
       </c>
-      <c r="C309" t="s">
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
+      <c r="C310" t="s">
         <v>559</v>
       </c>
-      <c r="C310" t="s">
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
+      <c r="C311" t="s">
         <v>561</v>
       </c>
-      <c r="C311" t="s">
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
+      <c r="C312" t="s">
         <v>563</v>
       </c>
-      <c r="C312" t="s">
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
+      <c r="C313" t="s">
         <v>565</v>
       </c>
-      <c r="C313" t="s">
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
+      <c r="C314" t="s">
         <v>567</v>
       </c>
-      <c r="C314" t="s">
-        <v>568</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>EV001</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>シィナ</t>
-  </si>
-  <si>
-    <t>Sina</t>
   </si>
   <si>
     <t>Shina</t>
@@ -514,7 +511,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ふふ…っ。かわいいサイズになったわね？ 
@@ -2752,2162 +2749,2162 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
         <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
         <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
         <v>58</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
         <v>60</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
         <v>64</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
         <v>68</v>
-      </c>
-      <c r="C52" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
         <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
         <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
         <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
         <v>80</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
         <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
         <v>97</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
         <v>99</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
         <v>106</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
         <v>108</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
         <v>110</v>
-      </c>
-      <c r="C84" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
         <v>112</v>
-      </c>
-      <c r="C85" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
         <v>114</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
         <v>116</v>
-      </c>
-      <c r="C87" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
         <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
         <v>120</v>
-      </c>
-      <c r="C89" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
         <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
         <v>124</v>
-      </c>
-      <c r="C91" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
         <v>126</v>
-      </c>
-      <c r="C92" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" t="s">
         <v>128</v>
-      </c>
-      <c r="C93" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
         <v>130</v>
-      </c>
-      <c r="C94" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
         <v>132</v>
-      </c>
-      <c r="C95" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" t="s">
         <v>134</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
         <v>136</v>
-      </c>
-      <c r="C97" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
         <v>140</v>
-      </c>
-      <c r="C99" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" t="s">
         <v>142</v>
-      </c>
-      <c r="C100" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" t="s">
         <v>144</v>
-      </c>
-      <c r="C101" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
         <v>146</v>
-      </c>
-      <c r="C102" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
         <v>148</v>
-      </c>
-      <c r="C103" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" t="s">
         <v>150</v>
-      </c>
-      <c r="C104" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" t="s">
         <v>152</v>
-      </c>
-      <c r="C105" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
         <v>154</v>
-      </c>
-      <c r="C106" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" t="s">
         <v>156</v>
-      </c>
-      <c r="C107" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
         <v>158</v>
-      </c>
-      <c r="C108" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
         <v>160</v>
-      </c>
-      <c r="C109" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
         <v>162</v>
-      </c>
-      <c r="C110" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" t="s">
         <v>164</v>
-      </c>
-      <c r="C111" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" t="s">
         <v>166</v>
-      </c>
-      <c r="C112" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" t="s">
         <v>168</v>
-      </c>
-      <c r="C113" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
         <v>170</v>
-      </c>
-      <c r="C114" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" t="s">
         <v>172</v>
-      </c>
-      <c r="C115" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
         <v>174</v>
-      </c>
-      <c r="C116" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
         <v>176</v>
-      </c>
-      <c r="C117" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" t="s">
         <v>178</v>
-      </c>
-      <c r="C118" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
         <v>180</v>
-      </c>
-      <c r="C119" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" t="s">
         <v>182</v>
-      </c>
-      <c r="C120" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" t="s">
         <v>184</v>
-      </c>
-      <c r="C121" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" t="s">
         <v>186</v>
-      </c>
-      <c r="C122" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" t="s">
         <v>188</v>
-      </c>
-      <c r="C123" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" t="s">
         <v>190</v>
-      </c>
-      <c r="C124" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" t="s">
         <v>192</v>
-      </c>
-      <c r="C125" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" t="s">
         <v>194</v>
-      </c>
-      <c r="C126" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
         <v>196</v>
-      </c>
-      <c r="C127" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" t="s">
         <v>198</v>
-      </c>
-      <c r="C128" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" t="s">
         <v>200</v>
-      </c>
-      <c r="C129" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
         <v>202</v>
-      </c>
-      <c r="C130" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" t="s">
         <v>204</v>
-      </c>
-      <c r="C131" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" t="s">
         <v>206</v>
-      </c>
-      <c r="C132" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" t="s">
         <v>208</v>
-      </c>
-      <c r="C133" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" t="s">
         <v>210</v>
-      </c>
-      <c r="C134" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" t="s">
         <v>212</v>
-      </c>
-      <c r="C135" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" t="s">
         <v>215</v>
-      </c>
-      <c r="C137" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
+        <v>216</v>
+      </c>
+      <c r="C138" t="s">
         <v>217</v>
-      </c>
-      <c r="C138" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" t="s">
         <v>219</v>
-      </c>
-      <c r="C139" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C140" t="s">
         <v>221</v>
-      </c>
-      <c r="C140" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" t="s">
         <v>223</v>
-      </c>
-      <c r="C141" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" t="s">
         <v>225</v>
-      </c>
-      <c r="C142" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" t="s">
         <v>227</v>
-      </c>
-      <c r="C143" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" t="s">
         <v>229</v>
-      </c>
-      <c r="C144" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" t="s">
         <v>231</v>
-      </c>
-      <c r="C145" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="C146" t="s">
         <v>233</v>
-      </c>
-      <c r="C146" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="s">
         <v>235</v>
-      </c>
-      <c r="C147" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
+        <v>236</v>
+      </c>
+      <c r="C148" t="s">
         <v>237</v>
-      </c>
-      <c r="C148" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" t="s">
         <v>239</v>
-      </c>
-      <c r="C149" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
+        <v>240</v>
+      </c>
+      <c r="C150" t="s">
         <v>241</v>
-      </c>
-      <c r="C150" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151" t="s">
         <v>243</v>
-      </c>
-      <c r="C151" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>244</v>
+      </c>
+      <c r="C152" t="s">
         <v>245</v>
-      </c>
-      <c r="C152" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" t="s">
         <v>247</v>
-      </c>
-      <c r="C153" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
+        <v>248</v>
+      </c>
+      <c r="C154" t="s">
         <v>249</v>
-      </c>
-      <c r="C154" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
+        <v>250</v>
+      </c>
+      <c r="C155" t="s">
         <v>251</v>
-      </c>
-      <c r="C155" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" t="s">
         <v>253</v>
-      </c>
-      <c r="C156" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" t="s">
         <v>255</v>
-      </c>
-      <c r="C157" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" t="s">
         <v>257</v>
-      </c>
-      <c r="C158" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" t="s">
         <v>259</v>
-      </c>
-      <c r="C159" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>260</v>
+      </c>
+      <c r="C160" t="s">
         <v>261</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>262</v>
-      </c>
-      <c r="D160" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
+        <v>263</v>
+      </c>
+      <c r="C161" t="s">
         <v>264</v>
-      </c>
-      <c r="C161" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
+        <v>265</v>
+      </c>
+      <c r="C162" t="s">
         <v>266</v>
-      </c>
-      <c r="C162" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" t="s">
         <v>268</v>
-      </c>
-      <c r="C163" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
+        <v>269</v>
+      </c>
+      <c r="C164" t="s">
         <v>270</v>
-      </c>
-      <c r="C164" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
+        <v>271</v>
+      </c>
+      <c r="C165" t="s">
         <v>272</v>
-      </c>
-      <c r="C165" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
+        <v>273</v>
+      </c>
+      <c r="C166" t="s">
         <v>274</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>275</v>
-      </c>
-      <c r="D166" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" t="s">
         <v>277</v>
-      </c>
-      <c r="C167" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168" t="s">
         <v>279</v>
-      </c>
-      <c r="C168" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
+        <v>280</v>
+      </c>
+      <c r="C169" t="s">
         <v>281</v>
-      </c>
-      <c r="C169" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
+        <v>282</v>
+      </c>
+      <c r="C170" t="s">
         <v>283</v>
-      </c>
-      <c r="C170" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
+        <v>284</v>
+      </c>
+      <c r="C171" t="s">
         <v>285</v>
-      </c>
-      <c r="C171" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172" t="s">
         <v>287</v>
-      </c>
-      <c r="C172" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173" t="s">
         <v>289</v>
-      </c>
-      <c r="C173" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" t="s">
         <v>291</v>
-      </c>
-      <c r="C174" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
+        <v>292</v>
+      </c>
+      <c r="C175" t="s">
         <v>293</v>
-      </c>
-      <c r="C175" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="C176" t="s">
         <v>295</v>
-      </c>
-      <c r="C176" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
+        <v>296</v>
+      </c>
+      <c r="C177" t="s">
         <v>297</v>
-      </c>
-      <c r="C177" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
+        <v>298</v>
+      </c>
+      <c r="C178" t="s">
         <v>299</v>
-      </c>
-      <c r="C178" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
+        <v>300</v>
+      </c>
+      <c r="C179" t="s">
         <v>301</v>
-      </c>
-      <c r="C179" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
+        <v>302</v>
+      </c>
+      <c r="C180" t="s">
         <v>303</v>
-      </c>
-      <c r="C180" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
+        <v>304</v>
+      </c>
+      <c r="C181" t="s">
         <v>305</v>
-      </c>
-      <c r="C181" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
+        <v>306</v>
+      </c>
+      <c r="C182" t="s">
         <v>307</v>
-      </c>
-      <c r="C182" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
+        <v>308</v>
+      </c>
+      <c r="C183" t="s">
         <v>309</v>
-      </c>
-      <c r="C183" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
+        <v>310</v>
+      </c>
+      <c r="C184" t="s">
         <v>311</v>
-      </c>
-      <c r="C184" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
+        <v>312</v>
+      </c>
+      <c r="C185" t="s">
         <v>313</v>
-      </c>
-      <c r="C185" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" t="s">
         <v>315</v>
-      </c>
-      <c r="C186" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
+        <v>316</v>
+      </c>
+      <c r="C187" t="s">
         <v>317</v>
-      </c>
-      <c r="C187" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" t="s">
         <v>319</v>
-      </c>
-      <c r="C188" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" t="s">
         <v>321</v>
-      </c>
-      <c r="C189" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
+        <v>322</v>
+      </c>
+      <c r="C190" t="s">
         <v>323</v>
-      </c>
-      <c r="C190" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
+        <v>324</v>
+      </c>
+      <c r="C191" t="s">
         <v>325</v>
-      </c>
-      <c r="C191" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
+        <v>326</v>
+      </c>
+      <c r="C192" t="s">
         <v>327</v>
-      </c>
-      <c r="C192" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" t="s">
         <v>329</v>
-      </c>
-      <c r="C193" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
         <v>331</v>
-      </c>
-      <c r="C194" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" t="s">
         <v>333</v>
-      </c>
-      <c r="C195" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C196" t="s">
         <v>335</v>
-      </c>
-      <c r="C196" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" t="s">
         <v>337</v>
-      </c>
-      <c r="C197" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" t="s">
         <v>339</v>
-      </c>
-      <c r="C198" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" t="s">
         <v>341</v>
-      </c>
-      <c r="C199" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" t="s">
         <v>343</v>
-      </c>
-      <c r="C200" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" t="s">
         <v>345</v>
-      </c>
-      <c r="C201" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" t="s">
         <v>347</v>
-      </c>
-      <c r="C202" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" t="s">
         <v>349</v>
-      </c>
-      <c r="C203" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" t="s">
         <v>351</v>
-      </c>
-      <c r="C204" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" t="s">
         <v>354</v>
-      </c>
-      <c r="C206" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
+        <v>355</v>
+      </c>
+      <c r="C207" t="s">
         <v>356</v>
-      </c>
-      <c r="C207" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" t="s">
         <v>358</v>
-      </c>
-      <c r="C208" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
+        <v>360</v>
+      </c>
+      <c r="C210" t="s">
         <v>361</v>
-      </c>
-      <c r="C210" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
+        <v>362</v>
+      </c>
+      <c r="C211" t="s">
         <v>363</v>
-      </c>
-      <c r="C211" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
+        <v>364</v>
+      </c>
+      <c r="C212" t="s">
         <v>365</v>
-      </c>
-      <c r="C212" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
+        <v>366</v>
+      </c>
+      <c r="C213" t="s">
         <v>367</v>
-      </c>
-      <c r="C213" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
+        <v>368</v>
+      </c>
+      <c r="C214" t="s">
         <v>369</v>
-      </c>
-      <c r="C214" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
+        <v>370</v>
+      </c>
+      <c r="C215" t="s">
         <v>371</v>
-      </c>
-      <c r="C215" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
+        <v>372</v>
+      </c>
+      <c r="C216" t="s">
         <v>373</v>
-      </c>
-      <c r="C216" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
+        <v>374</v>
+      </c>
+      <c r="C217" t="s">
         <v>375</v>
-      </c>
-      <c r="C217" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
+        <v>377</v>
+      </c>
+      <c r="C219" t="s">
         <v>378</v>
-      </c>
-      <c r="C219" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
+        <v>379</v>
+      </c>
+      <c r="C220" t="s">
         <v>380</v>
-      </c>
-      <c r="C220" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
+        <v>381</v>
+      </c>
+      <c r="C221" t="s">
         <v>382</v>
-      </c>
-      <c r="C221" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
+        <v>383</v>
+      </c>
+      <c r="C222" t="s">
         <v>384</v>
-      </c>
-      <c r="C222" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
+        <v>385</v>
+      </c>
+      <c r="C223" t="s">
         <v>386</v>
-      </c>
-      <c r="C223" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
+        <v>387</v>
+      </c>
+      <c r="C224" t="s">
         <v>388</v>
-      </c>
-      <c r="C224" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
+        <v>389</v>
+      </c>
+      <c r="C225" t="s">
         <v>390</v>
-      </c>
-      <c r="C225" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
+        <v>391</v>
+      </c>
+      <c r="C226" t="s">
         <v>392</v>
-      </c>
-      <c r="C226" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
+        <v>393</v>
+      </c>
+      <c r="C227" t="s">
         <v>394</v>
-      </c>
-      <c r="C227" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
+        <v>395</v>
+      </c>
+      <c r="C228" t="s">
         <v>396</v>
-      </c>
-      <c r="C228" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
+        <v>397</v>
+      </c>
+      <c r="C229" t="s">
         <v>398</v>
-      </c>
-      <c r="C229" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
+        <v>399</v>
+      </c>
+      <c r="C230" t="s">
         <v>400</v>
-      </c>
-      <c r="C230" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
+        <v>401</v>
+      </c>
+      <c r="C231" t="s">
         <v>402</v>
-      </c>
-      <c r="C231" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
+        <v>403</v>
+      </c>
+      <c r="C232" t="s">
         <v>404</v>
-      </c>
-      <c r="C232" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
+        <v>405</v>
+      </c>
+      <c r="C233" t="s">
         <v>406</v>
-      </c>
-      <c r="C233" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
+        <v>407</v>
+      </c>
+      <c r="C234" t="s">
         <v>408</v>
-      </c>
-      <c r="C234" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
+        <v>409</v>
+      </c>
+      <c r="C235" t="s">
         <v>410</v>
-      </c>
-      <c r="C235" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
+        <v>411</v>
+      </c>
+      <c r="C236" t="s">
         <v>412</v>
-      </c>
-      <c r="C236" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
+        <v>413</v>
+      </c>
+      <c r="C237" t="s">
         <v>414</v>
-      </c>
-      <c r="C237" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
+        <v>415</v>
+      </c>
+      <c r="C238" t="s">
         <v>416</v>
-      </c>
-      <c r="C238" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
+        <v>417</v>
+      </c>
+      <c r="C239" t="s">
         <v>418</v>
-      </c>
-      <c r="C239" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
+        <v>419</v>
+      </c>
+      <c r="C240" t="s">
         <v>420</v>
-      </c>
-      <c r="C240" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
+        <v>421</v>
+      </c>
+      <c r="C241" t="s">
         <v>422</v>
-      </c>
-      <c r="C241" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
+        <v>423</v>
+      </c>
+      <c r="C242" t="s">
         <v>424</v>
-      </c>
-      <c r="C242" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
+        <v>425</v>
+      </c>
+      <c r="C243" t="s">
         <v>426</v>
-      </c>
-      <c r="C243" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
+        <v>427</v>
+      </c>
+      <c r="C244" t="s">
         <v>428</v>
-      </c>
-      <c r="C244" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
+        <v>429</v>
+      </c>
+      <c r="C245" t="s">
         <v>430</v>
-      </c>
-      <c r="C245" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
+        <v>431</v>
+      </c>
+      <c r="C246" t="s">
         <v>432</v>
-      </c>
-      <c r="C246" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
+        <v>433</v>
+      </c>
+      <c r="C247" t="s">
         <v>434</v>
-      </c>
-      <c r="C247" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
+        <v>435</v>
+      </c>
+      <c r="C248" t="s">
         <v>436</v>
-      </c>
-      <c r="C248" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
+        <v>437</v>
+      </c>
+      <c r="C249" t="s">
         <v>438</v>
-      </c>
-      <c r="C249" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
+        <v>439</v>
+      </c>
+      <c r="C250" t="s">
         <v>440</v>
-      </c>
-      <c r="C250" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
+        <v>441</v>
+      </c>
+      <c r="C251" t="s">
         <v>442</v>
-      </c>
-      <c r="C251" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
+        <v>443</v>
+      </c>
+      <c r="C252" t="s">
         <v>444</v>
-      </c>
-      <c r="C252" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
+        <v>445</v>
+      </c>
+      <c r="C253" t="s">
         <v>446</v>
-      </c>
-      <c r="C253" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
+        <v>447</v>
+      </c>
+      <c r="C254" t="s">
         <v>448</v>
-      </c>
-      <c r="C254" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
+        <v>449</v>
+      </c>
+      <c r="C255" t="s">
         <v>450</v>
-      </c>
-      <c r="C255" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
+        <v>451</v>
+      </c>
+      <c r="C256" t="s">
         <v>452</v>
-      </c>
-      <c r="C256" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
+        <v>453</v>
+      </c>
+      <c r="C257" t="s">
         <v>454</v>
-      </c>
-      <c r="C257" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
+        <v>455</v>
+      </c>
+      <c r="C258" t="s">
         <v>456</v>
-      </c>
-      <c r="C258" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
+        <v>457</v>
+      </c>
+      <c r="C259" t="s">
         <v>458</v>
-      </c>
-      <c r="C259" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
+        <v>459</v>
+      </c>
+      <c r="C260" t="s">
         <v>460</v>
-      </c>
-      <c r="C260" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
+        <v>461</v>
+      </c>
+      <c r="C261" t="s">
         <v>462</v>
-      </c>
-      <c r="C261" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
+        <v>463</v>
+      </c>
+      <c r="C262" t="s">
         <v>464</v>
-      </c>
-      <c r="C262" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
+        <v>465</v>
+      </c>
+      <c r="C263" t="s">
         <v>466</v>
-      </c>
-      <c r="C263" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
+        <v>467</v>
+      </c>
+      <c r="C264" t="s">
         <v>468</v>
-      </c>
-      <c r="C264" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
+        <v>469</v>
+      </c>
+      <c r="C265" t="s">
         <v>470</v>
-      </c>
-      <c r="C265" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
+        <v>471</v>
+      </c>
+      <c r="C266" t="s">
         <v>472</v>
-      </c>
-      <c r="C266" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
+        <v>473</v>
+      </c>
+      <c r="C267" t="s">
         <v>474</v>
-      </c>
-      <c r="C267" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
+        <v>475</v>
+      </c>
+      <c r="C268" t="s">
         <v>476</v>
-      </c>
-      <c r="C268" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
+        <v>477</v>
+      </c>
+      <c r="C269" t="s">
         <v>478</v>
-      </c>
-      <c r="C269" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
+        <v>479</v>
+      </c>
+      <c r="C270" t="s">
         <v>480</v>
-      </c>
-      <c r="C270" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
+        <v>481</v>
+      </c>
+      <c r="C271" t="s">
         <v>482</v>
-      </c>
-      <c r="C271" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
+        <v>483</v>
+      </c>
+      <c r="C272" t="s">
         <v>484</v>
-      </c>
-      <c r="C272" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
+        <v>485</v>
+      </c>
+      <c r="C273" t="s">
         <v>486</v>
-      </c>
-      <c r="C273" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
+        <v>487</v>
+      </c>
+      <c r="C274" t="s">
         <v>488</v>
-      </c>
-      <c r="C274" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
+        <v>489</v>
+      </c>
+      <c r="C275" t="s">
         <v>490</v>
-      </c>
-      <c r="C275" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
+        <v>491</v>
+      </c>
+      <c r="C276" t="s">
         <v>492</v>
-      </c>
-      <c r="C276" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
+        <v>493</v>
+      </c>
+      <c r="C277" t="s">
         <v>494</v>
-      </c>
-      <c r="C277" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
+        <v>495</v>
+      </c>
+      <c r="C278" t="s">
         <v>496</v>
-      </c>
-      <c r="C278" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
+        <v>497</v>
+      </c>
+      <c r="C279" t="s">
         <v>498</v>
-      </c>
-      <c r="C279" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
+        <v>499</v>
+      </c>
+      <c r="C280" t="s">
         <v>500</v>
-      </c>
-      <c r="C280" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
+        <v>501</v>
+      </c>
+      <c r="C281" t="s">
         <v>502</v>
-      </c>
-      <c r="C281" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
+        <v>503</v>
+      </c>
+      <c r="C282" t="s">
         <v>504</v>
-      </c>
-      <c r="C282" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
+        <v>505</v>
+      </c>
+      <c r="C283" t="s">
         <v>506</v>
-      </c>
-      <c r="C283" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
+        <v>507</v>
+      </c>
+      <c r="C284" t="s">
         <v>508</v>
-      </c>
-      <c r="C284" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" t="s">
         <v>510</v>
-      </c>
-      <c r="C285" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
+        <v>511</v>
+      </c>
+      <c r="C286" t="s">
         <v>512</v>
-      </c>
-      <c r="C286" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
+        <v>513</v>
+      </c>
+      <c r="C287" t="s">
         <v>514</v>
-      </c>
-      <c r="C287" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
+        <v>515</v>
+      </c>
+      <c r="C288" t="s">
         <v>516</v>
-      </c>
-      <c r="C288" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
+        <v>517</v>
+      </c>
+      <c r="C289" t="s">
         <v>518</v>
-      </c>
-      <c r="C289" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
+        <v>520</v>
+      </c>
+      <c r="C291" t="s">
         <v>521</v>
-      </c>
-      <c r="C291" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
+        <v>522</v>
+      </c>
+      <c r="C292" t="s">
         <v>523</v>
-      </c>
-      <c r="C292" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
+        <v>524</v>
+      </c>
+      <c r="C293" t="s">
         <v>525</v>
-      </c>
-      <c r="C293" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
+        <v>526</v>
+      </c>
+      <c r="C294" t="s">
         <v>527</v>
-      </c>
-      <c r="C294" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
+        <v>528</v>
+      </c>
+      <c r="C295" t="s">
         <v>529</v>
-      </c>
-      <c r="C295" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
+        <v>530</v>
+      </c>
+      <c r="C296" t="s">
         <v>531</v>
-      </c>
-      <c r="C296" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
+        <v>532</v>
+      </c>
+      <c r="C297" t="s">
         <v>533</v>
-      </c>
-      <c r="C297" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
+        <v>534</v>
+      </c>
+      <c r="C298" t="s">
         <v>535</v>
-      </c>
-      <c r="C298" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
+        <v>536</v>
+      </c>
+      <c r="C299" t="s">
         <v>537</v>
-      </c>
-      <c r="C299" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
+        <v>538</v>
+      </c>
+      <c r="C300" t="s">
         <v>539</v>
-      </c>
-      <c r="C300" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
+        <v>540</v>
+      </c>
+      <c r="C301" t="s">
         <v>541</v>
-      </c>
-      <c r="C301" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
+        <v>542</v>
+      </c>
+      <c r="C302" t="s">
         <v>543</v>
-      </c>
-      <c r="C302" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
+        <v>544</v>
+      </c>
+      <c r="C303" t="s">
         <v>545</v>
-      </c>
-      <c r="C303" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
+        <v>546</v>
+      </c>
+      <c r="C304" t="s">
         <v>547</v>
-      </c>
-      <c r="C304" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C305" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
+        <v>549</v>
+      </c>
+      <c r="C306" t="s">
         <v>550</v>
-      </c>
-      <c r="C306" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
+        <v>551</v>
+      </c>
+      <c r="C307" t="s">
         <v>552</v>
-      </c>
-      <c r="C307" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
+        <v>553</v>
+      </c>
+      <c r="C308" t="s">
         <v>554</v>
-      </c>
-      <c r="C308" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
+        <v>555</v>
+      </c>
+      <c r="C309" t="s">
         <v>556</v>
-      </c>
-      <c r="C309" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
+        <v>557</v>
+      </c>
+      <c r="C310" t="s">
         <v>558</v>
-      </c>
-      <c r="C310" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
+        <v>559</v>
+      </c>
+      <c r="C311" t="s">
         <v>560</v>
-      </c>
-      <c r="C311" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
+        <v>561</v>
+      </c>
+      <c r="C312" t="s">
         <v>562</v>
-      </c>
-      <c r="C312" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
+        <v>563</v>
+      </c>
+      <c r="C313" t="s">
         <v>564</v>
-      </c>
-      <c r="C313" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
+        <v>565</v>
+      </c>
+      <c r="C314" t="s">
         <v>566</v>
-      </c>
-      <c r="C314" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -2675,11 +2675,17 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
@@ -3099,6 +3105,9 @@
         <v>117</v>
       </c>
       <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" t="s">
         <v>118</v>
       </c>
     </row>

--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -1276,7 +1276,7 @@
   </si>
   <si>
     <t>From my crotch to my back...from my toes to my head...
-the slimy surface rubs against me, stroking my genitals and body at the same time.</t>
+the slimy surface rubs against me, stroking my genitAlsto and body at the same time.</t>
   </si>
   <si>
     <t>上下に動く喉元がごくっ、こく……と、
@@ -1292,7 +1292,7 @@
   </si>
   <si>
     <t>It's not just the semen;
- This time my body is also being gulped down, slipping on her curved tongue...
+ This time my body is Alstoo being gulped down, slipping on her curved tongue...
 slipping right into her throat.</t>
   </si>
   <si>
@@ -2147,7 +2147,7 @@
 全身が溺れてしまって逃げ道がない。</t>
   </si>
   <si>
-    <t>An addictive feeling of perverseness, this melting feeling which steals everything away from you...
+    <t>An addictive feeling of perverseness, this melting feeling which steAlsto everything away from you...
 My whole being is drowning in ecstasy and there is no way out.</t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 ぜんぶ、全部熱い粘液に溶け混ざってゆく。</t>
   </si>
   <si>
-    <t>My limbs, my genitals, even my senses....
+    <t>My limbs, my genitAlsto, even my senses....
 All of them dissolve into the thick, hot mucus.</t>
   </si>
   <si>

--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -1292,7 +1292,7 @@
   </si>
   <si>
     <t>It's not just the semen;
- This time my body is Alstoo being gulped down, slipping on her curved tongue...
+ This time my body is also being gulped down, slipping on her curved tongue...
 slipping right into her throat.</t>
   </si>
   <si>

--- a/data/Map032.xlsx
+++ b/data/Map032.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>EV001</t>
   </si>
@@ -144,6 +144,9 @@
     <t>Shina</t>
   </si>
   <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;捕まえたにゃ！
 にゃははは♥
 ソッコー搾り取ってやるし♥</t>
@@ -159,11 +162,6 @@
 ほらほらほらァー♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;Where are you gonna cum?
-Look, I can fuck you with my hands.
-Look♥ Look♥ Look♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;Where are you gonna cum-nya?
 Look, I can fuck you with my hands-nya.
 Look♥ Look♥ Look♥</t>
@@ -173,10 +171,6 @@
 人間ってバカだもんにゃぁ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;"If I grab you right here, you're done for? 
-Humans are stupid."</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;If you're captured here, you're done for aren'nya? 
 Humans are stupid-nya.</t>
   </si>
@@ -314,6 +308,12 @@
     <t>EV008</t>
   </si>
   <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
     <t>果物ナイフか・・・
 一応武器として使えるかもしれない。</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;\n[1]ー♥こっち見てー♥</t>
+  </si>
+  <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;おっぱいでおちんちん挟んで
@@ -363,6 +369,9 @@
 ねー♥おいでおいでー♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そんなにおっきくしてるのに我慢するのー？
 一度出してすっきりした方がいいんじゃないかなー？
 出しておいた方がいいでしょー？ほーら♥</t>
@@ -371,6 +380,9 @@
     <t>\n&lt;\n[3]&gt;うんうん♥
 いい子だねー♥
 いっぱい甘えていいからねー♥</t>
+  </si>
+  <si>
+    <t>--------ここからクリア------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;もー・・・
@@ -1042,10 +1054,6 @@
   </si>
   <si>
     <t>My waist, so firmly held before, had been released...
- No sooner did I think this, then she began to suck my entire body into her mouth.</t>
-  </si>
-  <si>
-    <t>My waist, so firmly held before, had been released...
 No sooner did I think this, then she began to suck my entire body into her mouth.</t>
   </si>
   <si>
@@ -1088,11 +1096,6 @@
     <t>…ちゅぷっ……。
 唇が鳴る情けない音とともに、
 私はあっけなくリリーの口内に引きずり込まれた。</t>
-  </si>
-  <si>
-    <t>~chupu~ 
- With this pitiful sound from her lips,
-I was dragged effortlessly into Lily's mouth.</t>
   </si>
   <si>
     <t>...chupu...
@@ -2558,7 +2561,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2566,2354 +2569,2551 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>79</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>81</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B66" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>96</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="B82" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="B83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>107</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>109</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B89" t="s">
         <v>111</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
         <v>113</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
         <v>117</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>118</v>
       </c>
-      <c r="D88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="B93" t="s">
         <v>119</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="B94" t="s">
         <v>121</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="B95" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="B96" t="s">
         <v>125</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="B97" t="s">
         <v>127</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="B98" t="s">
         <v>129</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B99" t="s">
         <v>131</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B100" t="s">
         <v>133</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B101" t="s">
         <v>135</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="B102" t="s">
         <v>137</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="B103" t="s">
         <v>139</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="B104" t="s">
         <v>141</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="B105" t="s">
         <v>143</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="B106" t="s">
         <v>145</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="B107" t="s">
         <v>147</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+      <c r="B108" t="s">
         <v>149</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+      <c r="B109" t="s">
         <v>151</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="B110" t="s">
         <v>153</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="B111" t="s">
         <v>155</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="B112" t="s">
         <v>157</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+      <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+      <c r="B114" t="s">
         <v>161</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+      <c r="B115" t="s">
         <v>163</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+      <c r="B116" t="s">
         <v>165</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="B117" t="s">
         <v>167</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="B118" t="s">
         <v>169</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
         <v>171</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="B121" t="s">
         <v>175</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="B122" t="s">
         <v>177</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="B123" t="s">
         <v>179</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="B124" t="s">
         <v>181</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="B125" t="s">
         <v>183</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="B126" t="s">
         <v>185</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+      <c r="B127" t="s">
         <v>187</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="B128" t="s">
         <v>189</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="B129" t="s">
         <v>191</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+      <c r="B130" t="s">
         <v>193</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+      <c r="B131" t="s">
         <v>195</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+      <c r="B132" t="s">
         <v>197</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+      <c r="B133" t="s">
         <v>199</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+      <c r="B134" t="s">
         <v>201</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+      <c r="B135" t="s">
         <v>203</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="B136" t="s">
         <v>205</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+      <c r="B137" t="s">
         <v>207</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+      <c r="B138" t="s">
         <v>209</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+      <c r="B139" t="s">
         <v>211</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+      <c r="B140" t="s">
         <v>213</v>
       </c>
-      <c r="C136" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>214</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B141" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>216</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B142" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>218</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B143" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="B144" t="s">
         <v>220</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+      <c r="B145" t="s">
         <v>222</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="B146" t="s">
         <v>224</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+      <c r="B147" t="s">
         <v>226</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+      <c r="B148" t="s">
         <v>228</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+      <c r="B149" t="s">
         <v>230</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+      <c r="B150" t="s">
         <v>232</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="B151" t="s">
         <v>234</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="B152" t="s">
         <v>236</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+      <c r="B153" t="s">
         <v>238</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+      <c r="B154" t="s">
         <v>240</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+      <c r="B155" t="s">
         <v>242</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+      <c r="B156" t="s">
         <v>244</v>
       </c>
-      <c r="C152" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+      <c r="B157" t="s">
         <v>246</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+      <c r="B158" t="s">
         <v>248</v>
       </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+      <c r="B159" t="s">
         <v>250</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+      <c r="B160" t="s">
         <v>252</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+      <c r="B161" t="s">
         <v>254</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+      <c r="B162" t="s">
         <v>256</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+      <c r="B163" t="s">
         <v>258</v>
       </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+      <c r="B164" t="s">
         <v>260</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>261</v>
       </c>
-      <c r="D160" t="s">
+      <c r="B165" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>263</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B166" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>265</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B167" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>267</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B168" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>269</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B169" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>271</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B170" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>273</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B171" t="s">
         <v>274</v>
       </c>
-      <c r="D166" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+      <c r="B172" t="s">
         <v>276</v>
       </c>
-      <c r="C167" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+      <c r="B173" t="s">
         <v>278</v>
       </c>
-      <c r="C168" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+      <c r="B174" t="s">
         <v>280</v>
       </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="B175" t="s">
         <v>282</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+      <c r="B176" t="s">
         <v>284</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="B177" t="s">
         <v>286</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+      <c r="B178" t="s">
         <v>288</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+      <c r="B179" t="s">
         <v>290</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+      <c r="B180" t="s">
         <v>292</v>
       </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+      <c r="B181" t="s">
         <v>294</v>
       </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+      <c r="B182" t="s">
         <v>296</v>
       </c>
-      <c r="C177" t="s">
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+      <c r="B183" t="s">
         <v>298</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+      <c r="B184" t="s">
         <v>300</v>
       </c>
-      <c r="C179" t="s">
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+      <c r="B185" t="s">
         <v>302</v>
       </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+      <c r="B186" t="s">
         <v>304</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+      <c r="B187" t="s">
         <v>306</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+      <c r="B188" t="s">
         <v>308</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+      <c r="B189" t="s">
         <v>310</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+      <c r="B190" t="s">
         <v>312</v>
       </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+      <c r="B191" t="s">
         <v>314</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+      <c r="B192" t="s">
         <v>316</v>
       </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+      <c r="B193" t="s">
         <v>318</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+      <c r="B194" t="s">
         <v>320</v>
       </c>
-      <c r="C189" t="s">
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+      <c r="B195" t="s">
         <v>322</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+      <c r="B196" t="s">
         <v>324</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="B197" t="s">
         <v>326</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+      <c r="B198" t="s">
         <v>328</v>
       </c>
-      <c r="C193" t="s">
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+      <c r="B199" t="s">
         <v>330</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
+      <c r="B200" t="s">
         <v>332</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+      <c r="B201" t="s">
         <v>334</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+      <c r="B202" t="s">
         <v>336</v>
       </c>
-      <c r="C197" t="s">
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+      <c r="B203" t="s">
         <v>338</v>
       </c>
-      <c r="C198" t="s">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="B204" t="s">
         <v>340</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+      <c r="B205" t="s">
         <v>342</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+      <c r="B206" t="s">
         <v>344</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+      <c r="B207" t="s">
         <v>346</v>
       </c>
-      <c r="C202" t="s">
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+      <c r="B208" t="s">
         <v>348</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+      <c r="B209" t="s">
         <v>350</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
+      <c r="B210" t="s">
         <v>352</v>
       </c>
-      <c r="C205" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>353</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B211" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>355</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B212" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+      <c r="B213" t="s">
         <v>357</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
+      <c r="B214" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>360</v>
       </c>
-      <c r="C210" t="s">
+      <c r="B215" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>362</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B216" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
+      <c r="B217" t="s">
         <v>364</v>
       </c>
-      <c r="C212" t="s">
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+      <c r="B218" t="s">
         <v>366</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
+      <c r="B219" t="s">
         <v>368</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
+      <c r="B220" t="s">
         <v>370</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
+      <c r="B221" t="s">
         <v>372</v>
       </c>
-      <c r="C216" t="s">
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+      <c r="B222" t="s">
         <v>374</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
+      <c r="B223" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>377</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B224" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>379</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B225" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
+      <c r="B226" t="s">
         <v>381</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
+      <c r="B227" t="s">
         <v>383</v>
       </c>
-      <c r="C222" t="s">
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
+      <c r="B228" t="s">
         <v>385</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+      <c r="B229" t="s">
         <v>387</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+      <c r="B230" t="s">
         <v>389</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+      <c r="B231" t="s">
         <v>391</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+      <c r="B232" t="s">
         <v>393</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
+      <c r="B233" t="s">
         <v>395</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+      <c r="B234" t="s">
         <v>397</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
+      <c r="B235" t="s">
         <v>399</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+      <c r="B236" t="s">
         <v>401</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
+      <c r="B237" t="s">
         <v>403</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
+      <c r="B238" t="s">
         <v>405</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+      <c r="B239" t="s">
         <v>407</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+      <c r="B240" t="s">
         <v>409</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
+      <c r="B241" t="s">
         <v>411</v>
       </c>
-      <c r="C236" t="s">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
+      <c r="B242" t="s">
         <v>413</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
+      <c r="B243" t="s">
         <v>415</v>
       </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
+      <c r="B244" t="s">
         <v>417</v>
       </c>
-      <c r="C239" t="s">
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
+      <c r="B245" t="s">
         <v>419</v>
       </c>
-      <c r="C240" t="s">
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
+      <c r="B246" t="s">
         <v>421</v>
       </c>
-      <c r="C241" t="s">
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
+      <c r="B247" t="s">
         <v>423</v>
       </c>
-      <c r="C242" t="s">
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
+      <c r="B248" t="s">
         <v>425</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
+      <c r="B249" t="s">
         <v>427</v>
       </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+      <c r="B250" t="s">
         <v>429</v>
       </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+      <c r="B251" t="s">
         <v>431</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
+      <c r="B252" t="s">
         <v>433</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+      <c r="B253" t="s">
         <v>435</v>
       </c>
-      <c r="C248" t="s">
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+      <c r="B254" t="s">
         <v>437</v>
       </c>
-      <c r="C249" t="s">
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
+      <c r="B255" t="s">
         <v>439</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
+      <c r="B256" t="s">
         <v>441</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+      <c r="B257" t="s">
         <v>443</v>
       </c>
-      <c r="C252" t="s">
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+      <c r="B258" t="s">
         <v>445</v>
       </c>
-      <c r="C253" t="s">
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="B259" t="s">
         <v>447</v>
       </c>
-      <c r="C254" t="s">
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+      <c r="B260" t="s">
         <v>449</v>
       </c>
-      <c r="C255" t="s">
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+      <c r="B261" t="s">
         <v>451</v>
       </c>
-      <c r="C256" t="s">
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+      <c r="B262" t="s">
         <v>453</v>
       </c>
-      <c r="C257" t="s">
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+      <c r="B263" t="s">
         <v>455</v>
       </c>
-      <c r="C258" t="s">
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+      <c r="B264" t="s">
         <v>457</v>
       </c>
-      <c r="C259" t="s">
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
+      <c r="B265" t="s">
         <v>459</v>
       </c>
-      <c r="C260" t="s">
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
+      <c r="B266" t="s">
         <v>461</v>
       </c>
-      <c r="C261" t="s">
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
+      <c r="B267" t="s">
         <v>463</v>
       </c>
-      <c r="C262" t="s">
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
+      <c r="B268" t="s">
         <v>465</v>
       </c>
-      <c r="C263" t="s">
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
+      <c r="B269" t="s">
         <v>467</v>
       </c>
-      <c r="C264" t="s">
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
+      <c r="B270" t="s">
         <v>469</v>
       </c>
-      <c r="C265" t="s">
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
+      <c r="B271" t="s">
         <v>471</v>
       </c>
-      <c r="C266" t="s">
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
+      <c r="B272" t="s">
         <v>473</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
+      <c r="B273" t="s">
         <v>475</v>
       </c>
-      <c r="C268" t="s">
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
+      <c r="B274" t="s">
         <v>477</v>
       </c>
-      <c r="C269" t="s">
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
+      <c r="B275" t="s">
         <v>479</v>
       </c>
-      <c r="C270" t="s">
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
+      <c r="B276" t="s">
         <v>481</v>
       </c>
-      <c r="C271" t="s">
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
+      <c r="B277" t="s">
         <v>483</v>
       </c>
-      <c r="C272" t="s">
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
+      <c r="B278" t="s">
         <v>485</v>
       </c>
-      <c r="C273" t="s">
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
+      <c r="B279" t="s">
         <v>487</v>
       </c>
-      <c r="C274" t="s">
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
+      <c r="B280" t="s">
         <v>489</v>
       </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
+      <c r="B281" t="s">
         <v>491</v>
       </c>
-      <c r="C276" t="s">
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" t="s">
+      <c r="B282" t="s">
         <v>493</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
+      <c r="B283" t="s">
         <v>495</v>
       </c>
-      <c r="C278" t="s">
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" t="s">
+      <c r="B284" t="s">
         <v>497</v>
       </c>
-      <c r="C279" t="s">
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
+      <c r="B285" t="s">
         <v>499</v>
       </c>
-      <c r="C280" t="s">
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
+      <c r="B286" t="s">
         <v>501</v>
       </c>
-      <c r="C281" t="s">
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" t="s">
+      <c r="B287" t="s">
         <v>503</v>
       </c>
-      <c r="C282" t="s">
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
+      <c r="B288" t="s">
         <v>505</v>
       </c>
-      <c r="C283" t="s">
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
+      <c r="B289" t="s">
         <v>507</v>
       </c>
-      <c r="C284" t="s">
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
+      <c r="B290" t="s">
         <v>509</v>
       </c>
-      <c r="C285" t="s">
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
+      <c r="B291" t="s">
         <v>511</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
+      <c r="B292" t="s">
         <v>513</v>
       </c>
-      <c r="C287" t="s">
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
+      <c r="B293" t="s">
         <v>515</v>
       </c>
-      <c r="C288" t="s">
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
+      <c r="B294" t="s">
         <v>517</v>
       </c>
-      <c r="C289" t="s">
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
+      <c r="B295" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
         <v>520</v>
       </c>
-      <c r="C291" t="s">
+      <c r="B296" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
         <v>522</v>
       </c>
-      <c r="C292" t="s">
+      <c r="B297" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
+      <c r="B298" t="s">
         <v>524</v>
       </c>
-      <c r="C293" t="s">
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
+      <c r="B299" t="s">
         <v>526</v>
       </c>
-      <c r="C294" t="s">
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
+      <c r="B300" t="s">
         <v>528</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
+      <c r="B301" t="s">
         <v>530</v>
       </c>
-      <c r="C296" t="s">
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
+      <c r="B302" t="s">
         <v>532</v>
       </c>
-      <c r="C297" t="s">
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
+      <c r="B303" t="s">
         <v>534</v>
       </c>
-      <c r="C298" t="s">
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
+      <c r="B304" t="s">
         <v>536</v>
       </c>
-      <c r="C299" t="s">
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
+      <c r="B305" t="s">
         <v>538</v>
       </c>
-      <c r="C300" t="s">
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
+      <c r="B306" t="s">
         <v>540</v>
       </c>
-      <c r="C301" t="s">
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
+      <c r="B307" t="s">
         <v>542</v>
       </c>
-      <c r="C302" t="s">
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
+      <c r="B308" t="s">
         <v>544</v>
       </c>
-      <c r="C303" t="s">
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
+      <c r="B309" t="s">
         <v>546</v>
       </c>
-      <c r="C304" t="s">
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" t="s">
+      <c r="B310" t="s">
         <v>548</v>
       </c>
-      <c r="C305" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
         <v>549</v>
       </c>
-      <c r="C306" t="s">
+      <c r="B311" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
         <v>551</v>
       </c>
-      <c r="C307" t="s">
+      <c r="B312" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
+      <c r="B313" t="s">
         <v>553</v>
       </c>
-      <c r="C308" t="s">
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
+      <c r="B314" t="s">
         <v>555</v>
       </c>
-      <c r="C309" t="s">
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
+      <c r="B315" t="s">
         <v>557</v>
       </c>
-      <c r="C310" t="s">
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
+      <c r="B316" t="s">
         <v>559</v>
       </c>
-      <c r="C311" t="s">
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
+      <c r="B317" t="s">
         <v>561</v>
       </c>
-      <c r="C312" t="s">
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
+      <c r="B318" t="s">
         <v>563</v>
       </c>
-      <c r="C313" t="s">
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
+      <c r="B319" t="s">
         <v>565</v>
       </c>
-      <c r="C314" t="s">
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
         <v>566</v>
+      </c>
+      <c r="B320" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>568</v>
+      </c>
+      <c r="B321" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
